--- a/Matura2020/zd6.xlsx
+++ b/Matura2020/zd6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polis\PycharmProjects\Matura-Informatyka\Matura2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7AE1BF-A911-41B6-B0E1-D10ADFB38BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA8E804-E022-4F0C-89C6-346C40BF03D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{B680A685-83DB-409A-8DF3-ECC86F059228}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{B680A685-83DB-409A-8DF3-ECC86F059228}"/>
   </bookViews>
   <sheets>
     <sheet name="zd6.1" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -216,7 +216,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm/yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -293,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -307,26 +307,22 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -364,10 +360,55 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="mm/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -400,62 +441,7 @@
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2104,7 +2090,7 @@
     <cacheField name="T5" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="195"/>
     </cacheField>
-    <cacheField name="miesiąc i rok" numFmtId="165">
+    <cacheField name="miesiąc i rok" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:00:00" maxDate="2018-12-19T00:00:00" count="57">
         <d v="2016-01-01T00:00:00"/>
         <d v="2016-01-16T00:00:00"/>
@@ -5783,7 +5769,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EC446B36-B120-4363-943B-172CD31E5B02}" name="Tabela przestawna1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EC446B36-B120-4363-943B-172CD31E5B02}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField dataField="1" numFmtId="14" showAll="0"/>
@@ -5816,7 +5802,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0">
+    <pivotField numFmtId="164" showAll="0">
       <items count="58">
         <item x="56"/>
         <item x="0"/>
@@ -6088,7 +6074,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{401A365F-E5D7-4E5A-A730-3642DD9F74DB}" name="Tabela przestawna2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{401A365F-E5D7-4E5A-A730-3642DD9F74DB}" name="Tabela przestawna2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField numFmtId="14" showAll="0"/>
@@ -6127,7 +6113,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0">
+    <pivotField numFmtId="164" showAll="0">
       <items count="58">
         <item x="56"/>
         <item x="0"/>
@@ -6373,7 +6359,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D6335930-2552-4B47-B38C-A3E67B17B276}" name="Tabela przestawna3" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D6335930-2552-4B47-B38C-A3E67B17B276}" name="Tabela przestawna3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C39" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField numFmtId="14" showAll="0" defaultSubtotal="0"/>
@@ -6401,7 +6387,7 @@
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" numFmtId="165" showAll="0" defaultSubtotal="0">
+    <pivotField axis="axisRow" numFmtId="164" showAll="0" defaultSubtotal="0">
       <items count="57">
         <item x="56"/>
         <item x="0"/>
@@ -6758,7 +6744,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{899DFF49-4E7D-43B0-BF2F-420C4570E5E1}" name="Tabela przestawna3" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{899DFF49-4E7D-43B0-BF2F-420C4570E5E1}" name="Tabela przestawna3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField numFmtId="14" showAll="0"/>
@@ -6791,7 +6777,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="165" showAll="0">
+    <pivotField numFmtId="164" showAll="0">
       <items count="58">
         <item x="56"/>
         <item x="0"/>
@@ -7082,31 +7068,31 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{390B4C08-72F3-461D-9F82-0D99A6754946}" name="statek" displayName="statek" ref="A1:P204" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A1:P203" xr:uid="{390B4C08-72F3-461D-9F82-0D99A6754946}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{ACC455EF-FFC8-4369-8E6E-41AFF595CF0A}" uniqueName="1" name="data" queryTableFieldId="1" dataDxfId="29" totalsRowDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{3F969B08-CA93-45F6-ABCE-0BB972A9670A}" uniqueName="2" name="port" queryTableFieldId="2" dataDxfId="28" totalsRowDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{9F0BAABB-D5B6-42BC-8A55-7D65BA2EE254}" uniqueName="3" name="towar" queryTableFieldId="3" dataDxfId="27" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{ABCC3264-F5DF-482B-9FF2-46F9E0712044}" uniqueName="4" name="Z/W" queryTableFieldId="4" dataDxfId="26" totalsRowDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{ACC455EF-FFC8-4369-8E6E-41AFF595CF0A}" uniqueName="1" name="data" queryTableFieldId="1" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{3F969B08-CA93-45F6-ABCE-0BB972A9670A}" uniqueName="2" name="port" queryTableFieldId="2" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{9F0BAABB-D5B6-42BC-8A55-7D65BA2EE254}" uniqueName="3" name="towar" queryTableFieldId="3" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{ABCC3264-F5DF-482B-9FF2-46F9E0712044}" uniqueName="4" name="Z/W" queryTableFieldId="4" dataDxfId="26" totalsRowDxfId="25"/>
     <tableColumn id="5" xr3:uid="{7E62E52C-8824-4291-BF19-8FC9D7BBB3DA}" uniqueName="5" name="ile ton" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{576CE742-AC26-4F56-B240-EF5869EA1C55}" uniqueName="6" name="cena za tone w talarach" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{B710AF74-02C8-47F5-AE58-63EB2D45B5FF}" uniqueName="7" name="ilość dni na morzu" queryTableFieldId="7" dataDxfId="25" totalsRowDxfId="12">
+    <tableColumn id="7" xr3:uid="{B710AF74-02C8-47F5-AE58-63EB2D45B5FF}" uniqueName="7" name="ilość dni na morzu" queryTableFieldId="7" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>IF(A3-A2-1 = -1,0,A3-A2-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{2A327E3C-3B46-466B-B95D-25227684836C}" uniqueName="8" name="T1" queryTableFieldId="8" dataDxfId="24" totalsRowDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{70C8DEB6-8FA3-4068-91FF-864A75BA4B0F}" uniqueName="9" name="T2" queryTableFieldId="9" dataDxfId="23" totalsRowDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{FC388940-F6B4-4848-B0D5-0ADB49AD6A3D}" uniqueName="10" name="T3" queryTableFieldId="10" dataDxfId="22" totalsRowDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{7CDBC0F7-ED5E-4E53-8D95-968E484E43C1}" uniqueName="11" name="T4" queryTableFieldId="11" dataDxfId="21" totalsRowDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{A09CA1EF-4BCC-469D-ADB4-8DFD03868B25}" uniqueName="12" name="T5" queryTableFieldId="12" dataDxfId="20" totalsRowDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{D3EE55DD-233E-48C1-96B1-FC2C26314F01}" uniqueName="13" name="miesiąc i rok" queryTableFieldId="13" dataDxfId="19" totalsRowDxfId="6">
+    <tableColumn id="8" xr3:uid="{2A327E3C-3B46-466B-B95D-25227684836C}" uniqueName="8" name="T1" queryTableFieldId="8" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{70C8DEB6-8FA3-4068-91FF-864A75BA4B0F}" uniqueName="9" name="T2" queryTableFieldId="9" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{FC388940-F6B4-4848-B0D5-0ADB49AD6A3D}" uniqueName="10" name="T3" queryTableFieldId="10" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{7CDBC0F7-ED5E-4E53-8D95-968E484E43C1}" uniqueName="11" name="T4" queryTableFieldId="11" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{A09CA1EF-4BCC-469D-ADB4-8DFD03868B25}" uniqueName="12" name="T5" queryTableFieldId="12" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{D3EE55DD-233E-48C1-96B1-FC2C26314F01}" uniqueName="13" name="miesiąc i rok" queryTableFieldId="13" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{681382A0-986B-46BC-A599-5EF300121C63}" uniqueName="16" name="500000" queryTableFieldId="16" dataDxfId="18" totalsRowDxfId="5">
+    <tableColumn id="16" xr3:uid="{681382A0-986B-46BC-A599-5EF300121C63}" uniqueName="16" name="500000" queryTableFieldId="16" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(statek[[#This Row],[Z/W]]="Z",N1-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N1+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{5D5E224D-15AD-4411-83B6-16785AE52A45}" uniqueName="17" name="koszt załadunku" totalsRowFunction="custom" queryTableFieldId="17" dataDxfId="17" totalsRowDxfId="4">
+    <tableColumn id="17" xr3:uid="{5D5E224D-15AD-4411-83B6-16785AE52A45}" uniqueName="17" name="koszt załadunku" totalsRowFunction="custom" queryTableFieldId="17" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</calculatedColumnFormula>
       <totalsRowFormula>SUM(O2:O203)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{6D0FFF92-8D75-4B13-8FCF-E1134C880C21}" uniqueName="18" name="kasa na koniec dnia" queryTableFieldId="18" dataDxfId="3">
+    <tableColumn id="18" xr3:uid="{6D0FFF92-8D75-4B13-8FCF-E1134C880C21}" uniqueName="18" name="kasa na koniec dnia" queryTableFieldId="18" dataDxfId="6">
       <calculatedColumnFormula>IF(A3&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7118,9 +7104,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{605FC25F-0F45-4032-8BD8-79B6268DE499}" name="Tabela2" displayName="Tabela2" ref="A2:C3" totalsRowShown="0">
   <autoFilter ref="A2:C3" xr:uid="{605FC25F-0F45-4032-8BD8-79B6268DE499}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{47F08546-9371-4047-81D9-69240F7E403D}" name="towar" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{B44C1BDD-2D42-42E7-8ABF-EF6673151C7F}" name="łączna masa" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{861ADAF3-EB90-47A1-9636-121406D430CC}" name="ilość razy" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{47F08546-9371-4047-81D9-69240F7E403D}" name="towar" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{B44C1BDD-2D42-42E7-8ABF-EF6673151C7F}" name="łączna masa" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{861ADAF3-EB90-47A1-9636-121406D430CC}" name="ilość razy" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7451,10 +7437,10 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
         <v>1738</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4">
         <v>45</v>
       </c>
     </row>
@@ -7462,10 +7448,10 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5">
         <v>1568</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5">
         <v>43</v>
       </c>
     </row>
@@ -7473,10 +7459,10 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6">
         <v>896</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6">
         <v>39</v>
       </c>
     </row>
@@ -7484,10 +7470,10 @@
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7">
         <v>1231</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7">
         <v>39</v>
       </c>
     </row>
@@ -7495,10 +7481,10 @@
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8">
         <v>1110</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8">
         <v>36</v>
       </c>
     </row>
@@ -7506,10 +7492,10 @@
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9">
         <v>6543</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9">
         <v>202</v>
       </c>
     </row>
@@ -7546,7 +7532,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4">
         <v>22</v>
       </c>
     </row>
@@ -7604,644 +7590,615 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="12">
         <v>42370</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9">
+      <c r="C5">
         <v>32</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>42370</v>
       </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="12">
         <v>42385</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6">
         <v>32</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>42385</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6">
         <v>32</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="12">
         <v>42393</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9">
+      <c r="C7">
         <v>44</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>42393</v>
       </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="12">
         <v>42440</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8">
         <v>50</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8">
         <v>8</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>42440</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8">
         <v>50</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="12">
         <v>42482</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9">
+      <c r="C9">
         <v>33</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>42482</v>
       </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="12">
         <v>42504</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9">
+      <c r="C10">
         <v>35</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>42504</v>
       </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="12">
         <v>42542</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9">
+      <c r="C11">
         <v>42</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>42542</v>
       </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="12">
         <v>42559</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9">
+      <c r="C12">
         <v>35</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <v>42559</v>
       </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="12">
         <v>42593</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13">
         <v>191</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13">
         <v>48</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="12">
         <v>42593</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13">
         <v>191</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="12">
         <v>42619</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14">
         <v>4</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="E14" s="15">
+      <c r="E14" s="12">
         <v>42619</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14">
         <v>4</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="12">
         <v>42640</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9">
+      <c r="C15">
         <v>44</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="12">
         <v>42640</v>
       </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="12">
         <v>42704</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9">
+      <c r="C16">
         <v>30</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="12">
         <v>42704</v>
       </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="12">
         <v>42759</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17">
         <v>112</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17">
         <v>39</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="12">
         <v>42759</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17">
         <v>112</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="12">
         <v>42793</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="E18" s="15">
+      <c r="E18" s="12">
         <v>42793</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="12">
         <v>42819</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9">
+      <c r="C19">
         <v>35</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="12">
         <v>42819</v>
       </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="12">
         <v>42864</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9">
+      <c r="C20">
         <v>34</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="12">
         <v>42864</v>
       </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="12">
         <v>42882</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21">
         <v>68</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="E21" s="15">
+      <c r="E21" s="12">
         <v>42882</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21">
         <v>68</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="12">
         <v>42904</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9">
+      <c r="C22">
         <v>8</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="12">
         <v>42904</v>
       </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="A23" s="12">
         <v>42959</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23">
         <v>48</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23">
         <v>42</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="12">
         <v>42959</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23">
         <v>48</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="A24" s="12">
         <v>42993</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9">
+      <c r="C24">
         <v>4</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="12">
         <v>42993</v>
       </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="A25" s="12">
         <v>43019</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25">
         <v>6</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="E25" s="15">
+      <c r="E25" s="12">
         <v>43019</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25">
         <v>6</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="12">
         <v>43040</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="E26" s="15">
+      <c r="E26" s="12">
         <v>43040</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="A27" s="12">
         <v>43082</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9">
+      <c r="C27">
         <v>12</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="12">
         <v>43082</v>
       </c>
-      <c r="F27" s="9">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="A28" s="12">
         <v>43129</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28">
         <v>22</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28">
         <v>10</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="12">
         <v>43129</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28">
         <v>22</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="A29" s="12">
         <v>43147</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9">
+      <c r="C29">
         <v>34</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="12">
         <v>43147</v>
       </c>
-      <c r="F29" s="9">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="A30" s="12">
         <v>43162</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30">
         <v>34</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="E30" s="15">
+      <c r="E30" s="12">
         <v>43162</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30">
         <v>34</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
+      <c r="A31" s="12">
         <v>43207</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9">
+      <c r="C31">
         <v>5</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="12">
         <v>43207</v>
       </c>
-      <c r="F31" s="9">
-        <v>0</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="12">
         <v>43252</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9">
+      <c r="C32">
         <v>48</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="12">
         <v>43252</v>
       </c>
-      <c r="F32" s="9">
-        <v>0</v>
-      </c>
-      <c r="G32" s="9">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
+      <c r="A33" s="12">
         <v>43292</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9">
+      <c r="C33">
         <v>72</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="12">
         <v>43292</v>
       </c>
-      <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
+      <c r="A34" s="12">
         <v>43317</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34">
         <v>121</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="E34" s="15">
+      <c r="E34" s="12">
         <v>43317</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34">
         <v>121</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
+      <c r="A35" s="12">
         <v>43347</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9">
+      <c r="C35">
         <v>22</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="12">
         <v>43347</v>
       </c>
-      <c r="F35" s="9">
-        <v>0</v>
-      </c>
-      <c r="G35" s="9">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
+      <c r="A36" s="12">
         <v>43362</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36">
         <v>26</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="E36" s="15">
+      <c r="E36" s="12">
         <v>43362</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36">
         <v>26</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
+      <c r="A37" s="12">
         <v>43407</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9">
+      <c r="C37">
         <v>20</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="12">
         <v>43407</v>
       </c>
-      <c r="F37" s="9">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
+      <c r="A38" s="12">
         <v>43428</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38">
         <v>64</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38">
         <v>48</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="12">
         <v>43428</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38">
         <v>64</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38">
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
+      <c r="A39" s="12">
         <v>43452</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39">
         <v>4</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="E39" s="15">
+      <c r="E39" s="12">
         <v>43452</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39">
         <v>4</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39">
         <v>0</v>
       </c>
     </row>
@@ -8268,7 +8225,7 @@
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
     <col min="16" max="16" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="34.85546875" bestFit="1" customWidth="1"/>
@@ -8312,7 +8269,7 @@
       <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="9" t="s">
         <v>40</v>
       </c>
       <c r="N1" t="s">
@@ -8363,19 +8320,19 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="9">
         <f t="shared" ref="M2:M65" si="0">A3</f>
         <v>42370</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N1-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N1+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>499760</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>240</v>
       </c>
-      <c r="P2" s="9" t="str">
+      <c r="P2" t="str">
         <f>IF(A3&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -8426,19 +8383,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L2+statek[[#This Row],[ile ton]],L2-statek[[#This Row],[ile ton]]),L2)</f>
         <v>32</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="9">
         <f t="shared" si="0"/>
         <v>42370</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N2-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N2+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>498160</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1600</v>
       </c>
-      <c r="P3" s="9" t="str">
+      <c r="P3" t="str">
         <f>IF(A4&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -8493,19 +8450,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L3+statek[[#This Row],[ile ton]],L3-statek[[#This Row],[ile ton]]),L3)</f>
         <v>32</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="9">
         <f t="shared" si="0"/>
         <v>42370</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N3-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N3+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>497780</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>380</v>
       </c>
-      <c r="P4" s="9" t="str">
+      <c r="P4" t="str">
         <f>IF(A5&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -8553,19 +8510,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L4+statek[[#This Row],[ile ton]],L4-statek[[#This Row],[ile ton]]),L4)</f>
         <v>32</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="9">
         <f t="shared" si="0"/>
         <v>42370</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N4-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N4+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>496790</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>990</v>
       </c>
-      <c r="P5" s="9" t="str">
+      <c r="P5" t="str">
         <f>IF(A6&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -8620,19 +8577,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L5+statek[[#This Row],[ile ton]],L5-statek[[#This Row],[ile ton]]),L5)</f>
         <v>32</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="9">
         <f t="shared" si="0"/>
         <v>42385</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N5-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N5+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>495715</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1075</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6">
         <f>IF(A7&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>495715</v>
       </c>
@@ -8687,19 +8644,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L6+statek[[#This Row],[ile ton]],L6-statek[[#This Row],[ile ton]]),L6)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="9">
         <f t="shared" si="0"/>
         <v>42385</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N6-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N6+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>497571</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="9" t="str">
+      <c r="P7" t="str">
         <f>IF(A8&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -8747,19 +8704,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L7+statek[[#This Row],[ile ton]],L7-statek[[#This Row],[ile ton]]),L7)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="9">
         <f t="shared" si="0"/>
         <v>42393</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N7-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N7+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>497207</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>364</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8">
         <f>IF(A9&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>497207</v>
       </c>
@@ -8807,19 +8764,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L8+statek[[#This Row],[ile ton]],L8-statek[[#This Row],[ile ton]]),L8)</f>
         <v>44</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="10">
         <f t="shared" si="0"/>
         <v>42393</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="8">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N8-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N8+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>495183</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="8">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>2024</v>
       </c>
-      <c r="P9" s="10" t="str">
+      <c r="P9" s="8" t="str">
         <f>IF(A10&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -8867,19 +8824,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L9+statek[[#This Row],[ile ton]],L9-statek[[#This Row],[ile ton]]),L9)</f>
         <v>44</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="9">
         <f t="shared" si="0"/>
         <v>42393</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N9-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N9+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>495155</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>28</v>
       </c>
-      <c r="P10" s="9" t="str">
+      <c r="P10" t="str">
         <f>IF(A11&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -8927,19 +8884,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L10+statek[[#This Row],[ile ton]],L10-statek[[#This Row],[ile ton]]),L10)</f>
         <v>44</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="11">
         <f t="shared" si="0"/>
         <v>42419</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="5">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N10-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N10+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>493601</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="5">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1554</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="5">
         <f>IF(A12&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>493601</v>
       </c>
@@ -8987,19 +8944,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L11+statek[[#This Row],[ile ton]],L11-statek[[#This Row],[ile ton]]),L11)</f>
         <v>44</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="9">
         <f t="shared" si="0"/>
         <v>42419</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N11-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N11+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>494977</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="9" t="str">
+      <c r="P12" t="str">
         <f>IF(A13&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -9047,19 +9004,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L12+statek[[#This Row],[ile ton]],L12-statek[[#This Row],[ile ton]]),L12)</f>
         <v>44</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="9">
         <f t="shared" si="0"/>
         <v>42419</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N12-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N12+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>495471</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="9" t="str">
+      <c r="P13" t="str">
         <f>IF(A14&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -9107,19 +9064,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L13+statek[[#This Row],[ile ton]],L13-statek[[#This Row],[ile ton]]),L13)</f>
         <v>44</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="9">
         <f t="shared" si="0"/>
         <v>42419</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N13-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N13+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>494940</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>531</v>
       </c>
-      <c r="P14" s="9" t="str">
+      <c r="P14" t="str">
         <f>IF(A15&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -9167,19 +9124,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L14+statek[[#This Row],[ile ton]],L14-statek[[#This Row],[ile ton]]),L14)</f>
         <v>52</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="9">
         <f t="shared" si="0"/>
         <v>42440</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N14-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N14+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>494644</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>296</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15">
         <f>IF(A16&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>494644</v>
       </c>
@@ -9227,19 +9184,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L15+statek[[#This Row],[ile ton]],L15-statek[[#This Row],[ile ton]]),L15)</f>
         <v>2</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="9">
         <f t="shared" si="0"/>
         <v>42440</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N15-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N15+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>497694</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="9" t="str">
+      <c r="P16" t="str">
         <f>IF(A17&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -9287,19 +9244,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L16+statek[[#This Row],[ile ton]],L16-statek[[#This Row],[ile ton]]),L16)</f>
         <v>2</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="9">
         <f t="shared" si="0"/>
         <v>42440</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N16-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N16+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>497054</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>640</v>
       </c>
-      <c r="P17" s="9" t="str">
+      <c r="P17" t="str">
         <f>IF(A18&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -9347,19 +9304,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L17+statek[[#This Row],[ile ton]],L17-statek[[#This Row],[ile ton]]),L17)</f>
         <v>2</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="9">
         <f t="shared" si="0"/>
         <v>42440</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N17-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N17+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>496998</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>56</v>
       </c>
-      <c r="P18" s="9" t="str">
+      <c r="P18" t="str">
         <f>IF(A19&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -9407,19 +9364,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L18+statek[[#This Row],[ile ton]],L18-statek[[#This Row],[ile ton]]),L18)</f>
         <v>2</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="9">
         <f t="shared" si="0"/>
         <v>42464</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N18-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N18+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>496758</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O19">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>240</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P19">
         <f>IF(A20&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>496758</v>
       </c>
@@ -9467,19 +9424,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L19+statek[[#This Row],[ile ton]],L19-statek[[#This Row],[ile ton]]),L19)</f>
         <v>2</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="9">
         <f t="shared" si="0"/>
         <v>42464</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N19-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N19+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>496842</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P20" s="9" t="str">
+      <c r="P20" t="str">
         <f>IF(A21&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -9527,19 +9484,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L20+statek[[#This Row],[ile ton]],L20-statek[[#This Row],[ile ton]]),L20)</f>
         <v>2</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="9">
         <f t="shared" si="0"/>
         <v>42464</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N20-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N20+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>496367</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>475</v>
       </c>
-      <c r="P21" s="9" t="str">
+      <c r="P21" t="str">
         <f>IF(A22&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -9587,19 +9544,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L21+statek[[#This Row],[ile ton]],L21-statek[[#This Row],[ile ton]]),L21)</f>
         <v>35</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="9">
         <f t="shared" si="0"/>
         <v>42482</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N21-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N21+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>495113</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1254</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22">
         <f>IF(A23&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>495113</v>
       </c>
@@ -9647,19 +9604,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L22+statek[[#This Row],[ile ton]],L22-statek[[#This Row],[ile ton]]),L22)</f>
         <v>35</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="9">
         <f t="shared" si="0"/>
         <v>42482</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N22-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N22+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>496373</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P23" s="9" t="str">
+      <c r="P23" t="str">
         <f>IF(A24&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -9707,19 +9664,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L23+statek[[#This Row],[ile ton]],L23-statek[[#This Row],[ile ton]]),L23)</f>
         <v>35</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="9">
         <f t="shared" si="0"/>
         <v>42482</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N23-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N23+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>496043</v>
       </c>
-      <c r="O24" s="9">
+      <c r="O24">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>330</v>
       </c>
-      <c r="P24" s="9" t="str">
+      <c r="P24" t="str">
         <f>IF(A25&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -9767,19 +9724,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L24+statek[[#This Row],[ile ton]],L24-statek[[#This Row],[ile ton]]),L24)</f>
         <v>70</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="9">
         <f t="shared" si="0"/>
         <v>42504</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N24-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N24+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>494608</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O25">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1435</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P25">
         <f>IF(A26&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>494608</v>
       </c>
@@ -9827,19 +9784,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L25+statek[[#This Row],[ile ton]],L25-statek[[#This Row],[ile ton]]),L25)</f>
         <v>70</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M26" s="9">
         <f t="shared" si="0"/>
         <v>42504</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N25-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N25+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>498332</v>
       </c>
-      <c r="O26" s="9">
+      <c r="O26">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="9" t="str">
+      <c r="P26" t="str">
         <f>IF(A27&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -9887,19 +9844,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L26+statek[[#This Row],[ile ton]],L26-statek[[#This Row],[ile ton]]),L26)</f>
         <v>70</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="9">
         <f t="shared" si="0"/>
         <v>42529</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N26-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N26+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>498102</v>
       </c>
-      <c r="O27" s="9">
+      <c r="O27">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>230</v>
       </c>
-      <c r="P27" s="9">
+      <c r="P27">
         <f>IF(A28&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>498102</v>
       </c>
@@ -9947,19 +9904,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L27+statek[[#This Row],[ile ton]],L27-statek[[#This Row],[ile ton]]),L27)</f>
         <v>70</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M28" s="9">
         <f t="shared" si="0"/>
         <v>42529</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N27-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N27+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>498254</v>
       </c>
-      <c r="O28" s="9">
+      <c r="O28">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P28" s="9" t="str">
+      <c r="P28" t="str">
         <f>IF(A29&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -10007,19 +9964,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L28+statek[[#This Row],[ile ton]],L28-statek[[#This Row],[ile ton]]),L28)</f>
         <v>70</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="9">
         <f t="shared" si="0"/>
         <v>42529</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N28-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N28+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>495734</v>
       </c>
-      <c r="O29" s="9">
+      <c r="O29">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>2520</v>
       </c>
-      <c r="P29" s="9" t="str">
+      <c r="P29" t="str">
         <f>IF(A30&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -10067,19 +10024,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L29+statek[[#This Row],[ile ton]],L29-statek[[#This Row],[ile ton]]),L29)</f>
         <v>70</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M30" s="9">
         <f t="shared" si="0"/>
         <v>42529</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N29-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N29+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>495510</v>
       </c>
-      <c r="O30" s="9">
+      <c r="O30">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>224</v>
       </c>
-      <c r="P30" s="9" t="str">
+      <c r="P30" t="str">
         <f>IF(A31&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -10127,19 +10084,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L30+statek[[#This Row],[ile ton]],L30-statek[[#This Row],[ile ton]]),L30)</f>
         <v>70</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M31" s="9">
         <f t="shared" si="0"/>
         <v>42542</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N31">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N30-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N30+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>495149</v>
       </c>
-      <c r="O31" s="9">
+      <c r="O31">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>361</v>
       </c>
-      <c r="P31" s="9">
+      <c r="P31">
         <f>IF(A32&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>495149</v>
       </c>
@@ -10187,19 +10144,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L31+statek[[#This Row],[ile ton]],L31-statek[[#This Row],[ile ton]]),L31)</f>
         <v>70</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="9">
         <f t="shared" si="0"/>
         <v>42542</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N32">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N31-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N31+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>497165</v>
       </c>
-      <c r="O32" s="9">
+      <c r="O32">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P32" s="9" t="str">
+      <c r="P32" t="str">
         <f>IF(A33&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -10247,19 +10204,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L32+statek[[#This Row],[ile ton]],L32-statek[[#This Row],[ile ton]]),L32)</f>
         <v>70</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="9">
         <f t="shared" si="0"/>
         <v>42542</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N33">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N32-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N32+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>500945</v>
       </c>
-      <c r="O33" s="9">
+      <c r="O33">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P33" s="9" t="str">
+      <c r="P33" t="str">
         <f>IF(A34&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -10307,19 +10264,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L33+statek[[#This Row],[ile ton]],L33-statek[[#This Row],[ile ton]]),L33)</f>
         <v>112</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M34" s="9">
         <f t="shared" si="0"/>
         <v>42542</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N34">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N33-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N33+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>499097</v>
       </c>
-      <c r="O34" s="9">
+      <c r="O34">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1848</v>
       </c>
-      <c r="P34" s="9" t="str">
+      <c r="P34" t="str">
         <f>IF(A35&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -10367,19 +10324,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L34+statek[[#This Row],[ile ton]],L34-statek[[#This Row],[ile ton]]),L34)</f>
         <v>112</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="9">
         <f t="shared" si="0"/>
         <v>42542</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N35">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N34-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N34+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>498239</v>
       </c>
-      <c r="O35" s="9">
+      <c r="O35">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>858</v>
       </c>
-      <c r="P35" s="9" t="str">
+      <c r="P35" t="str">
         <f>IF(A36&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -10427,19 +10384,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L35+statek[[#This Row],[ile ton]],L35-statek[[#This Row],[ile ton]]),L35)</f>
         <v>112</v>
       </c>
-      <c r="M36" s="12">
+      <c r="M36" s="9">
         <f t="shared" si="0"/>
         <v>42559</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N35-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N35+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>498158</v>
       </c>
-      <c r="O36" s="9">
+      <c r="O36">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>81</v>
       </c>
-      <c r="P36" s="9">
+      <c r="P36">
         <f>IF(A37&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>498158</v>
       </c>
@@ -10487,19 +10444,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L36+statek[[#This Row],[ile ton]],L36-statek[[#This Row],[ile ton]]),L36)</f>
         <v>112</v>
       </c>
-      <c r="M37" s="12">
+      <c r="M37" s="9">
         <f t="shared" si="0"/>
         <v>42559</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N37">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N36-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N36+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>498274</v>
       </c>
-      <c r="O37" s="9">
+      <c r="O37">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P37" s="9" t="str">
+      <c r="P37" t="str">
         <f>IF(A38&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -10547,19 +10504,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L37+statek[[#This Row],[ile ton]],L37-statek[[#This Row],[ile ton]]),L37)</f>
         <v>112</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M38" s="9">
         <f t="shared" si="0"/>
         <v>42559</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N38">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N37-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N37+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>498718</v>
       </c>
-      <c r="O38" s="9">
+      <c r="O38">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P38" s="9" t="str">
+      <c r="P38" t="str">
         <f>IF(A39&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -10607,19 +10564,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L38+statek[[#This Row],[ile ton]],L38-statek[[#This Row],[ile ton]]),L38)</f>
         <v>147</v>
       </c>
-      <c r="M39" s="12">
+      <c r="M39" s="9">
         <f t="shared" si="0"/>
         <v>42559</v>
       </c>
-      <c r="N39" s="9">
+      <c r="N39">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N38-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N38+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>497248</v>
       </c>
-      <c r="O39" s="9">
+      <c r="O39">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1470</v>
       </c>
-      <c r="P39" s="9" t="str">
+      <c r="P39" t="str">
         <f>IF(A40&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -10667,19 +10624,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L39+statek[[#This Row],[ile ton]],L39-statek[[#This Row],[ile ton]]),L39)</f>
         <v>147</v>
       </c>
-      <c r="M40" s="12">
+      <c r="M40" s="9">
         <f t="shared" si="0"/>
         <v>42574</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N40">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N39-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N39+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>495136</v>
       </c>
-      <c r="O40" s="9">
+      <c r="O40">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>2112</v>
       </c>
-      <c r="P40" s="9">
+      <c r="P40">
         <f>IF(A41&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>495136</v>
       </c>
@@ -10727,19 +10684,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L40+statek[[#This Row],[ile ton]],L40-statek[[#This Row],[ile ton]]),L40)</f>
         <v>147</v>
       </c>
-      <c r="M41" s="12">
+      <c r="M41" s="9">
         <f t="shared" si="0"/>
         <v>42574</v>
       </c>
-      <c r="N41" s="9">
+      <c r="N41">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N40-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N40+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>498080</v>
       </c>
-      <c r="O41" s="9">
+      <c r="O41">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P41" s="9" t="str">
+      <c r="P41" t="str">
         <f>IF(A42&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -10787,19 +10744,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L41+statek[[#This Row],[ile ton]],L41-statek[[#This Row],[ile ton]]),L41)</f>
         <v>195</v>
       </c>
-      <c r="M42" s="12">
+      <c r="M42" s="9">
         <f t="shared" si="0"/>
         <v>42593</v>
       </c>
-      <c r="N42" s="9">
+      <c r="N42">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N41-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N41+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>496016</v>
       </c>
-      <c r="O42" s="9">
+      <c r="O42">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>2064</v>
       </c>
-      <c r="P42" s="9">
+      <c r="P42">
         <f>IF(A43&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>496016</v>
       </c>
@@ -10847,19 +10804,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L42+statek[[#This Row],[ile ton]],L42-statek[[#This Row],[ile ton]]),L42)</f>
         <v>4</v>
       </c>
-      <c r="M43" s="12">
+      <c r="M43" s="9">
         <f t="shared" si="0"/>
         <v>42593</v>
       </c>
-      <c r="N43" s="9">
+      <c r="N43">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N42-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N42+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>507476</v>
       </c>
-      <c r="O43" s="9">
+      <c r="O43">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P43" s="9" t="str">
+      <c r="P43" t="str">
         <f>IF(A44&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -10907,19 +10864,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L43+statek[[#This Row],[ile ton]],L43-statek[[#This Row],[ile ton]]),L43)</f>
         <v>4</v>
       </c>
-      <c r="M44" s="12">
+      <c r="M44" s="9">
         <f t="shared" si="0"/>
         <v>42593</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N44">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N43-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N43+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>507260</v>
       </c>
-      <c r="O44" s="9">
+      <c r="O44">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>216</v>
       </c>
-      <c r="P44" s="9" t="str">
+      <c r="P44" t="str">
         <f>IF(A45&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -10967,19 +10924,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L44+statek[[#This Row],[ile ton]],L44-statek[[#This Row],[ile ton]]),L44)</f>
         <v>4</v>
       </c>
-      <c r="M45" s="12">
+      <c r="M45" s="9">
         <f t="shared" si="0"/>
         <v>42619</v>
       </c>
-      <c r="N45" s="9">
+      <c r="N45">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N44-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N44+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>504920</v>
       </c>
-      <c r="O45" s="9">
+      <c r="O45">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>2340</v>
       </c>
-      <c r="P45" s="9">
+      <c r="P45">
         <f>IF(A46&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>504920</v>
       </c>
@@ -11027,19 +10984,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L45+statek[[#This Row],[ile ton]],L45-statek[[#This Row],[ile ton]]),L45)</f>
         <v>4</v>
       </c>
-      <c r="M46" s="12">
+      <c r="M46" s="9">
         <f t="shared" si="0"/>
         <v>42619</v>
       </c>
-      <c r="N46" s="9">
+      <c r="N46">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N45-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N45+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>504591</v>
       </c>
-      <c r="O46" s="9">
+      <c r="O46">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>329</v>
       </c>
-      <c r="P46" s="9" t="str">
+      <c r="P46" t="str">
         <f>IF(A47&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -11087,19 +11044,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L46+statek[[#This Row],[ile ton]],L46-statek[[#This Row],[ile ton]]),L46)</f>
         <v>0</v>
       </c>
-      <c r="M47" s="12">
+      <c r="M47" s="9">
         <f t="shared" si="0"/>
         <v>42619</v>
       </c>
-      <c r="N47" s="9">
+      <c r="N47">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N46-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N46+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>504843</v>
       </c>
-      <c r="O47" s="9">
+      <c r="O47">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P47" s="9" t="str">
+      <c r="P47" t="str">
         <f>IF(A48&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -11147,19 +11104,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L47+statek[[#This Row],[ile ton]],L47-statek[[#This Row],[ile ton]]),L47)</f>
         <v>0</v>
       </c>
-      <c r="M48" s="12">
+      <c r="M48" s="9">
         <f t="shared" si="0"/>
         <v>42619</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N48">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N47-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N47+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>504691</v>
       </c>
-      <c r="O48" s="9">
+      <c r="O48">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>152</v>
       </c>
-      <c r="P48" s="9" t="str">
+      <c r="P48" t="str">
         <f>IF(A49&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -11207,19 +11164,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L48+statek[[#This Row],[ile ton]],L48-statek[[#This Row],[ile ton]]),L48)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="12">
+      <c r="M49" s="9">
         <f t="shared" si="0"/>
         <v>42619</v>
       </c>
-      <c r="N49" s="9">
+      <c r="N49">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N48-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N48+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>504625</v>
       </c>
-      <c r="O49" s="9">
+      <c r="O49">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>66</v>
       </c>
-      <c r="P49" s="9" t="str">
+      <c r="P49" t="str">
         <f>IF(A50&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -11267,19 +11224,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L49+statek[[#This Row],[ile ton]],L49-statek[[#This Row],[ile ton]]),L49)</f>
         <v>0</v>
       </c>
-      <c r="M50" s="12">
+      <c r="M50" s="9">
         <f t="shared" si="0"/>
         <v>42640</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N50">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N49-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N49+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>502206</v>
       </c>
-      <c r="O50" s="9">
+      <c r="O50">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>2419</v>
       </c>
-      <c r="P50" s="9">
+      <c r="P50">
         <f>IF(A51&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>502206</v>
       </c>
@@ -11327,19 +11284,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L50+statek[[#This Row],[ile ton]],L50-statek[[#This Row],[ile ton]]),L50)</f>
         <v>44</v>
       </c>
-      <c r="M51" s="12">
+      <c r="M51" s="9">
         <f t="shared" si="0"/>
         <v>42640</v>
       </c>
-      <c r="N51" s="9">
+      <c r="N51">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N50-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N50+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>500446</v>
       </c>
-      <c r="O51" s="9">
+      <c r="O51">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1760</v>
       </c>
-      <c r="P51" s="9" t="str">
+      <c r="P51" t="str">
         <f>IF(A52&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -11387,19 +11344,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L51+statek[[#This Row],[ile ton]],L51-statek[[#This Row],[ile ton]]),L51)</f>
         <v>44</v>
       </c>
-      <c r="M52" s="12">
+      <c r="M52" s="9">
         <f t="shared" si="0"/>
         <v>42640</v>
       </c>
-      <c r="N52" s="9">
+      <c r="N52">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N51-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N51+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>500986</v>
       </c>
-      <c r="O52" s="9">
+      <c r="O52">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P52" s="9" t="str">
+      <c r="P52" t="str">
         <f>IF(A53&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -11447,19 +11404,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L52+statek[[#This Row],[ile ton]],L52-statek[[#This Row],[ile ton]]),L52)</f>
         <v>44</v>
       </c>
-      <c r="M53" s="12">
+      <c r="M53" s="9">
         <f t="shared" si="0"/>
         <v>42640</v>
       </c>
-      <c r="N53" s="9">
+      <c r="N53">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N52-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N52+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>500186</v>
       </c>
-      <c r="O53" s="9">
+      <c r="O53">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>800</v>
       </c>
-      <c r="P53" s="9" t="str">
+      <c r="P53" t="str">
         <f>IF(A54&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -11507,19 +11464,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L53+statek[[#This Row],[ile ton]],L53-statek[[#This Row],[ile ton]]),L53)</f>
         <v>44</v>
       </c>
-      <c r="M54" s="12">
+      <c r="M54" s="9">
         <f t="shared" si="0"/>
         <v>42640</v>
       </c>
-      <c r="N54" s="9">
+      <c r="N54">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N53-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N53+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>499997</v>
       </c>
-      <c r="O54" s="9">
+      <c r="O54">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>189</v>
       </c>
-      <c r="P54" s="9" t="str">
+      <c r="P54" t="str">
         <f>IF(A55&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -11567,19 +11524,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L54+statek[[#This Row],[ile ton]],L54-statek[[#This Row],[ile ton]]),L54)</f>
         <v>44</v>
       </c>
-      <c r="M55" s="12">
+      <c r="M55" s="9">
         <f t="shared" si="0"/>
         <v>42664</v>
       </c>
-      <c r="N55" s="9">
+      <c r="N55">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N54-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N54+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>499589</v>
       </c>
-      <c r="O55" s="9">
+      <c r="O55">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>408</v>
       </c>
-      <c r="P55" s="9">
+      <c r="P55">
         <f>IF(A56&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>499589</v>
       </c>
@@ -11627,19 +11584,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L55+statek[[#This Row],[ile ton]],L55-statek[[#This Row],[ile ton]]),L55)</f>
         <v>44</v>
       </c>
-      <c r="M56" s="12">
+      <c r="M56" s="9">
         <f t="shared" si="0"/>
         <v>42664</v>
       </c>
-      <c r="N56" s="9">
+      <c r="N56">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N55-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N55+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>499613</v>
       </c>
-      <c r="O56" s="9">
+      <c r="O56">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P56" s="9" t="str">
+      <c r="P56" t="str">
         <f>IF(A57&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -11687,19 +11644,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L56+statek[[#This Row],[ile ton]],L56-statek[[#This Row],[ile ton]]),L56)</f>
         <v>44</v>
       </c>
-      <c r="M57" s="12">
+      <c r="M57" s="9">
         <f t="shared" si="0"/>
         <v>42664</v>
       </c>
-      <c r="N57" s="9">
+      <c r="N57">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N56-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N56+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>499347</v>
       </c>
-      <c r="O57" s="9">
+      <c r="O57">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>266</v>
       </c>
-      <c r="P57" s="9" t="str">
+      <c r="P57" t="str">
         <f>IF(A58&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -11747,19 +11704,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L57+statek[[#This Row],[ile ton]],L57-statek[[#This Row],[ile ton]]),L57)</f>
         <v>44</v>
       </c>
-      <c r="M58" s="12">
+      <c r="M58" s="9">
         <f t="shared" si="0"/>
         <v>42682</v>
       </c>
-      <c r="N58" s="9">
+      <c r="N58">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N57-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N57+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>498818</v>
       </c>
-      <c r="O58" s="9">
+      <c r="O58">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>529</v>
       </c>
-      <c r="P58" s="9">
+      <c r="P58">
         <f>IF(A59&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>498818</v>
       </c>
@@ -11807,19 +11764,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L58+statek[[#This Row],[ile ton]],L58-statek[[#This Row],[ile ton]]),L58)</f>
         <v>44</v>
       </c>
-      <c r="M59" s="12">
+      <c r="M59" s="9">
         <f t="shared" si="0"/>
         <v>42682</v>
       </c>
-      <c r="N59" s="9">
+      <c r="N59">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N58-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N58+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>498730</v>
       </c>
-      <c r="O59" s="9">
+      <c r="O59">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>88</v>
       </c>
-      <c r="P59" s="9" t="str">
+      <c r="P59" t="str">
         <f>IF(A60&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -11867,19 +11824,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L59+statek[[#This Row],[ile ton]],L59-statek[[#This Row],[ile ton]]),L59)</f>
         <v>44</v>
       </c>
-      <c r="M60" s="12">
+      <c r="M60" s="9">
         <f t="shared" si="0"/>
         <v>42682</v>
       </c>
-      <c r="N60" s="9">
+      <c r="N60">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N59-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N59+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>497608</v>
       </c>
-      <c r="O60" s="9">
+      <c r="O60">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1122</v>
       </c>
-      <c r="P60" s="9" t="str">
+      <c r="P60" t="str">
         <f>IF(A61&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -11927,19 +11884,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L60+statek[[#This Row],[ile ton]],L60-statek[[#This Row],[ile ton]]),L60)</f>
         <v>74</v>
       </c>
-      <c r="M61" s="12">
+      <c r="M61" s="9">
         <f t="shared" si="0"/>
         <v>42704</v>
       </c>
-      <c r="N61" s="9">
+      <c r="N61">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N60-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N60+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>496378</v>
       </c>
-      <c r="O61" s="9">
+      <c r="O61">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1230</v>
       </c>
-      <c r="P61" s="9">
+      <c r="P61">
         <f>IF(A62&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>496378</v>
       </c>
@@ -11987,19 +11944,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L61+statek[[#This Row],[ile ton]],L61-statek[[#This Row],[ile ton]]),L61)</f>
         <v>74</v>
       </c>
-      <c r="M62" s="12">
+      <c r="M62" s="9">
         <f t="shared" si="0"/>
         <v>42704</v>
       </c>
-      <c r="N62" s="9">
+      <c r="N62">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N61-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N61+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>505884</v>
       </c>
-      <c r="O62" s="9">
+      <c r="O62">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P62" s="9" t="str">
+      <c r="P62" t="str">
         <f>IF(A63&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -12047,19 +12004,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L62+statek[[#This Row],[ile ton]],L62-statek[[#This Row],[ile ton]]),L62)</f>
         <v>74</v>
       </c>
-      <c r="M63" s="12">
+      <c r="M63" s="9">
         <f t="shared" si="0"/>
         <v>42704</v>
       </c>
-      <c r="N63" s="9">
+      <c r="N63">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N62-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N62+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>506016</v>
       </c>
-      <c r="O63" s="9">
+      <c r="O63">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P63" s="9" t="str">
+      <c r="P63" t="str">
         <f>IF(A64&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -12107,19 +12064,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L63+statek[[#This Row],[ile ton]],L63-statek[[#This Row],[ile ton]]),L63)</f>
         <v>74</v>
       </c>
-      <c r="M64" s="12">
+      <c r="M64" s="9">
         <f t="shared" si="0"/>
         <v>42704</v>
       </c>
-      <c r="N64" s="9">
+      <c r="N64">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N63-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N63+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>505676</v>
       </c>
-      <c r="O64" s="9">
+      <c r="O64">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>340</v>
       </c>
-      <c r="P64" s="9" t="str">
+      <c r="P64" t="str">
         <f>IF(A65&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -12167,19 +12124,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L64+statek[[#This Row],[ile ton]],L64-statek[[#This Row],[ile ton]]),L64)</f>
         <v>74</v>
       </c>
-      <c r="M65" s="12">
+      <c r="M65" s="9">
         <f t="shared" si="0"/>
         <v>42729</v>
       </c>
-      <c r="N65" s="9">
+      <c r="N65">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N64-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N64+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>505584</v>
       </c>
-      <c r="O65" s="9">
+      <c r="O65">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>92</v>
       </c>
-      <c r="P65" s="9">
+      <c r="P65">
         <f>IF(A66&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>505584</v>
       </c>
@@ -12227,19 +12184,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L65+statek[[#This Row],[ile ton]],L65-statek[[#This Row],[ile ton]]),L65)</f>
         <v>74</v>
       </c>
-      <c r="M66" s="12">
+      <c r="M66" s="9">
         <f t="shared" ref="M66:M129" si="2">A67</f>
         <v>42729</v>
       </c>
-      <c r="N66" s="9">
+      <c r="N66">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N65-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N65+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>508033</v>
       </c>
-      <c r="O66" s="9">
+      <c r="O66">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P66" s="9" t="str">
+      <c r="P66" t="str">
         <f>IF(A67&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -12287,19 +12244,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L66+statek[[#This Row],[ile ton]],L66-statek[[#This Row],[ile ton]]),L66)</f>
         <v>74</v>
       </c>
-      <c r="M67" s="12">
+      <c r="M67" s="9">
         <f t="shared" si="2"/>
         <v>42729</v>
       </c>
-      <c r="N67" s="9">
+      <c r="N67">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N66-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N66+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>506053</v>
       </c>
-      <c r="O67" s="9">
+      <c r="O67">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1980</v>
       </c>
-      <c r="P67" s="9" t="str">
+      <c r="P67" t="str">
         <f>IF(A68&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -12347,19 +12304,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L67+statek[[#This Row],[ile ton]],L67-statek[[#This Row],[ile ton]]),L67)</f>
         <v>74</v>
       </c>
-      <c r="M68" s="12">
+      <c r="M68" s="9">
         <f t="shared" si="2"/>
         <v>42742</v>
       </c>
-      <c r="N68" s="9">
+      <c r="N68">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N67-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N67+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>505455</v>
       </c>
-      <c r="O68" s="9">
+      <c r="O68">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>598</v>
       </c>
-      <c r="P68" s="9">
+      <c r="P68">
         <f>IF(A69&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>505455</v>
       </c>
@@ -12407,19 +12364,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L68+statek[[#This Row],[ile ton]],L68-statek[[#This Row],[ile ton]]),L68)</f>
         <v>74</v>
       </c>
-      <c r="M69" s="12">
+      <c r="M69" s="9">
         <f t="shared" si="2"/>
         <v>42742</v>
       </c>
-      <c r="N69" s="9">
+      <c r="N69">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N68-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N68+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>504575</v>
       </c>
-      <c r="O69" s="9">
+      <c r="O69">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>880</v>
       </c>
-      <c r="P69" s="9" t="str">
+      <c r="P69" t="str">
         <f>IF(A70&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -12467,19 +12424,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L69+statek[[#This Row],[ile ton]],L69-statek[[#This Row],[ile ton]]),L69)</f>
         <v>74</v>
       </c>
-      <c r="M70" s="12">
+      <c r="M70" s="9">
         <f t="shared" si="2"/>
         <v>42742</v>
       </c>
-      <c r="N70" s="9">
+      <c r="N70">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N69-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N69+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>504197</v>
       </c>
-      <c r="O70" s="9">
+      <c r="O70">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>378</v>
       </c>
-      <c r="P70" s="9" t="str">
+      <c r="P70" t="str">
         <f>IF(A71&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -12527,19 +12484,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L70+statek[[#This Row],[ile ton]],L70-statek[[#This Row],[ile ton]]),L70)</f>
         <v>74</v>
       </c>
-      <c r="M71" s="12">
+      <c r="M71" s="9">
         <f t="shared" si="2"/>
         <v>42742</v>
       </c>
-      <c r="N71" s="9">
+      <c r="N71">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N70-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N70+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>503105</v>
       </c>
-      <c r="O71" s="9">
+      <c r="O71">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1092</v>
       </c>
-      <c r="P71" s="9" t="str">
+      <c r="P71" t="str">
         <f>IF(A72&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -12587,19 +12544,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L71+statek[[#This Row],[ile ton]],L71-statek[[#This Row],[ile ton]]),L71)</f>
         <v>74</v>
       </c>
-      <c r="M72" s="12">
+      <c r="M72" s="9">
         <f t="shared" si="2"/>
         <v>42742</v>
       </c>
-      <c r="N72" s="9">
+      <c r="N72">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N71-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N71+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>502475</v>
       </c>
-      <c r="O72" s="9">
+      <c r="O72">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>630</v>
       </c>
-      <c r="P72" s="9" t="str">
+      <c r="P72" t="str">
         <f>IF(A73&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -12647,19 +12604,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L72+statek[[#This Row],[ile ton]],L72-statek[[#This Row],[ile ton]]),L72)</f>
         <v>113</v>
       </c>
-      <c r="M73" s="12">
+      <c r="M73" s="9">
         <f t="shared" si="2"/>
         <v>42759</v>
       </c>
-      <c r="N73" s="9">
+      <c r="N73">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N72-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N72+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>500759</v>
       </c>
-      <c r="O73" s="9">
+      <c r="O73">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1716</v>
       </c>
-      <c r="P73" s="9">
+      <c r="P73">
         <f>IF(A74&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>500759</v>
       </c>
@@ -12707,19 +12664,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L73+statek[[#This Row],[ile ton]],L73-statek[[#This Row],[ile ton]]),L73)</f>
         <v>1</v>
       </c>
-      <c r="M74" s="12">
+      <c r="M74" s="9">
         <f t="shared" si="2"/>
         <v>42759</v>
       </c>
-      <c r="N74" s="9">
+      <c r="N74">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N73-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N73+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>507367</v>
       </c>
-      <c r="O74" s="9">
+      <c r="O74">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P74" s="9" t="str">
+      <c r="P74" t="str">
         <f>IF(A75&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -12767,19 +12724,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L74+statek[[#This Row],[ile ton]],L74-statek[[#This Row],[ile ton]]),L74)</f>
         <v>1</v>
       </c>
-      <c r="M75" s="12">
+      <c r="M75" s="9">
         <f t="shared" si="2"/>
         <v>42759</v>
       </c>
-      <c r="N75" s="9">
+      <c r="N75">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N74-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N74+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>505123</v>
       </c>
-      <c r="O75" s="9">
+      <c r="O75">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>2244</v>
       </c>
-      <c r="P75" s="9" t="str">
+      <c r="P75" t="str">
         <f>IF(A76&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -12827,19 +12784,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L75+statek[[#This Row],[ile ton]],L75-statek[[#This Row],[ile ton]]),L75)</f>
         <v>1</v>
       </c>
-      <c r="M76" s="12">
+      <c r="M76" s="9">
         <f t="shared" si="2"/>
         <v>42774</v>
       </c>
-      <c r="N76" s="9">
+      <c r="N76">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N75-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N75+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>505018</v>
       </c>
-      <c r="O76" s="9">
+      <c r="O76">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>105</v>
       </c>
-      <c r="P76" s="9">
+      <c r="P76">
         <f>IF(A77&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>505018</v>
       </c>
@@ -12887,19 +12844,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L76+statek[[#This Row],[ile ton]],L76-statek[[#This Row],[ile ton]]),L76)</f>
         <v>1</v>
       </c>
-      <c r="M77" s="12">
+      <c r="M77" s="9">
         <f t="shared" si="2"/>
         <v>42774</v>
       </c>
-      <c r="N77" s="9">
+      <c r="N77">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N76-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N76+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>511826</v>
       </c>
-      <c r="O77" s="9">
+      <c r="O77">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P77" s="9" t="str">
+      <c r="P77" t="str">
         <f>IF(A78&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -12947,19 +12904,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L77+statek[[#This Row],[ile ton]],L77-statek[[#This Row],[ile ton]]),L77)</f>
         <v>1</v>
       </c>
-      <c r="M78" s="12">
+      <c r="M78" s="9">
         <f t="shared" si="2"/>
         <v>42793</v>
       </c>
-      <c r="N78" s="9">
+      <c r="N78">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N77-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N77+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>511462</v>
       </c>
-      <c r="O78" s="9">
+      <c r="O78">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>364</v>
       </c>
-      <c r="P78" s="9">
+      <c r="P78">
         <f>IF(A79&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>511462</v>
       </c>
@@ -13007,19 +12964,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L78+statek[[#This Row],[ile ton]],L78-statek[[#This Row],[ile ton]]),L78)</f>
         <v>0</v>
       </c>
-      <c r="M79" s="12">
+      <c r="M79" s="9">
         <f t="shared" si="2"/>
         <v>42793</v>
       </c>
-      <c r="N79" s="9">
+      <c r="N79">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N78-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N78+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>511522</v>
       </c>
-      <c r="O79" s="9">
+      <c r="O79">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P79" s="9" t="str">
+      <c r="P79" t="str">
         <f>IF(A80&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -13067,19 +13024,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L79+statek[[#This Row],[ile ton]],L79-statek[[#This Row],[ile ton]]),L79)</f>
         <v>0</v>
       </c>
-      <c r="M80" s="12">
+      <c r="M80" s="9">
         <f t="shared" si="2"/>
         <v>42793</v>
       </c>
-      <c r="N80" s="9">
+      <c r="N80">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N79-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N79+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>513070</v>
       </c>
-      <c r="O80" s="9">
+      <c r="O80">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P80" s="9" t="str">
+      <c r="P80" t="str">
         <f>IF(A81&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -13127,19 +13084,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L80+statek[[#This Row],[ile ton]],L80-statek[[#This Row],[ile ton]]),L80)</f>
         <v>0</v>
       </c>
-      <c r="M81" s="12">
+      <c r="M81" s="9">
         <f t="shared" si="2"/>
         <v>42793</v>
       </c>
-      <c r="N81" s="9">
+      <c r="N81">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N80-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N80+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>512830</v>
       </c>
-      <c r="O81" s="9">
+      <c r="O81">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>240</v>
       </c>
-      <c r="P81" s="9" t="str">
+      <c r="P81" t="str">
         <f>IF(A82&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -13187,19 +13144,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L81+statek[[#This Row],[ile ton]],L81-statek[[#This Row],[ile ton]]),L81)</f>
         <v>0</v>
       </c>
-      <c r="M82" s="12">
+      <c r="M82" s="9">
         <f t="shared" si="2"/>
         <v>42819</v>
       </c>
-      <c r="N82" s="9">
+      <c r="N82">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N81-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N81+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>512550</v>
       </c>
-      <c r="O82" s="9">
+      <c r="O82">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>280</v>
       </c>
-      <c r="P82" s="9">
+      <c r="P82">
         <f>IF(A83&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>512550</v>
       </c>
@@ -13247,19 +13204,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L82+statek[[#This Row],[ile ton]],L82-statek[[#This Row],[ile ton]]),L82)</f>
         <v>0</v>
       </c>
-      <c r="M83" s="12">
+      <c r="M83" s="9">
         <f t="shared" si="2"/>
         <v>42819</v>
       </c>
-      <c r="N83" s="9">
+      <c r="N83">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N82-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N82+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>513804</v>
       </c>
-      <c r="O83" s="9">
+      <c r="O83">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P83" s="9" t="str">
+      <c r="P83" t="str">
         <f>IF(A84&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -13307,19 +13264,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L83+statek[[#This Row],[ile ton]],L83-statek[[#This Row],[ile ton]]),L83)</f>
         <v>35</v>
       </c>
-      <c r="M84" s="12">
+      <c r="M84" s="9">
         <f t="shared" si="2"/>
         <v>42819</v>
       </c>
-      <c r="N84" s="9">
+      <c r="N84">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N83-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N83+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>512509</v>
       </c>
-      <c r="O84" s="9">
+      <c r="O84">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1295</v>
       </c>
-      <c r="P84" s="9" t="str">
+      <c r="P84" t="str">
         <f>IF(A85&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -13367,19 +13324,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L84+statek[[#This Row],[ile ton]],L84-statek[[#This Row],[ile ton]]),L84)</f>
         <v>35</v>
       </c>
-      <c r="M85" s="12">
+      <c r="M85" s="9">
         <f t="shared" si="2"/>
         <v>42840</v>
       </c>
-      <c r="N85" s="9">
+      <c r="N85">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N84-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N84+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>511749</v>
       </c>
-      <c r="O85" s="9">
+      <c r="O85">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>760</v>
       </c>
-      <c r="P85" s="9">
+      <c r="P85">
         <f>IF(A86&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>511749</v>
       </c>
@@ -13427,19 +13384,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L85+statek[[#This Row],[ile ton]],L85-statek[[#This Row],[ile ton]]),L85)</f>
         <v>35</v>
       </c>
-      <c r="M86" s="12">
+      <c r="M86" s="9">
         <f t="shared" si="2"/>
         <v>42840</v>
       </c>
-      <c r="N86" s="9">
+      <c r="N86">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N85-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N85+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>512505</v>
       </c>
-      <c r="O86" s="9">
+      <c r="O86">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P86" s="9" t="str">
+      <c r="P86" t="str">
         <f>IF(A87&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -13487,19 +13444,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L86+statek[[#This Row],[ile ton]],L86-statek[[#This Row],[ile ton]]),L86)</f>
         <v>35</v>
       </c>
-      <c r="M87" s="12">
+      <c r="M87" s="9">
         <f t="shared" si="2"/>
         <v>42840</v>
       </c>
-      <c r="N87" s="9">
+      <c r="N87">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N86-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N86+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>512699</v>
       </c>
-      <c r="O87" s="9">
+      <c r="O87">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P87" s="9" t="str">
+      <c r="P87" t="str">
         <f>IF(A88&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -13547,19 +13504,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L87+statek[[#This Row],[ile ton]],L87-statek[[#This Row],[ile ton]]),L87)</f>
         <v>35</v>
       </c>
-      <c r="M88" s="12">
+      <c r="M88" s="9">
         <f t="shared" si="2"/>
         <v>42840</v>
       </c>
-      <c r="N88" s="9">
+      <c r="N88">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N87-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N87+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>512459</v>
       </c>
-      <c r="O88" s="9">
+      <c r="O88">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>240</v>
       </c>
-      <c r="P88" s="9" t="str">
+      <c r="P88" t="str">
         <f>IF(A89&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -13607,19 +13564,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L88+statek[[#This Row],[ile ton]],L88-statek[[#This Row],[ile ton]]),L88)</f>
         <v>35</v>
       </c>
-      <c r="M89" s="12">
+      <c r="M89" s="9">
         <f t="shared" si="2"/>
         <v>42840</v>
       </c>
-      <c r="N89" s="9">
+      <c r="N89">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N88-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N88+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>512339</v>
       </c>
-      <c r="O89" s="9">
+      <c r="O89">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>120</v>
       </c>
-      <c r="P89" s="9" t="str">
+      <c r="P89" t="str">
         <f>IF(A90&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -13667,19 +13624,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L89+statek[[#This Row],[ile ton]],L89-statek[[#This Row],[ile ton]]),L89)</f>
         <v>36</v>
       </c>
-      <c r="M90" s="12">
+      <c r="M90" s="9">
         <f t="shared" si="2"/>
         <v>42864</v>
       </c>
-      <c r="N90" s="9">
+      <c r="N90">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N89-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N89+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>512299</v>
       </c>
-      <c r="O90" s="9">
+      <c r="O90">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>40</v>
       </c>
-      <c r="P90" s="9">
+      <c r="P90">
         <f>IF(A91&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>512299</v>
       </c>
@@ -13727,19 +13684,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L90+statek[[#This Row],[ile ton]],L90-statek[[#This Row],[ile ton]]),L90)</f>
         <v>36</v>
       </c>
-      <c r="M91" s="12">
+      <c r="M91" s="9">
         <f t="shared" si="2"/>
         <v>42864</v>
       </c>
-      <c r="N91" s="9">
+      <c r="N91">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N90-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N90+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>513331</v>
       </c>
-      <c r="O91" s="9">
+      <c r="O91">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P91" s="9" t="str">
+      <c r="P91" t="str">
         <f>IF(A92&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -13787,19 +13744,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L91+statek[[#This Row],[ile ton]],L91-statek[[#This Row],[ile ton]]),L91)</f>
         <v>36</v>
       </c>
-      <c r="M92" s="12">
+      <c r="M92" s="9">
         <f t="shared" si="2"/>
         <v>42864</v>
       </c>
-      <c r="N92" s="9">
+      <c r="N92">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N91-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N91+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>516741</v>
       </c>
-      <c r="O92" s="9">
+      <c r="O92">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P92" s="9" t="str">
+      <c r="P92" t="str">
         <f>IF(A93&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -13847,19 +13804,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L92+statek[[#This Row],[ile ton]],L92-statek[[#This Row],[ile ton]]),L92)</f>
         <v>69</v>
       </c>
-      <c r="M93" s="12">
+      <c r="M93" s="9">
         <f t="shared" si="2"/>
         <v>42864</v>
       </c>
-      <c r="N93" s="9">
+      <c r="N93">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N92-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N92+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>515487</v>
       </c>
-      <c r="O93" s="9">
+      <c r="O93">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1254</v>
       </c>
-      <c r="P93" s="9" t="str">
+      <c r="P93" t="str">
         <f>IF(A94&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -13907,19 +13864,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L93+statek[[#This Row],[ile ton]],L93-statek[[#This Row],[ile ton]]),L93)</f>
         <v>69</v>
       </c>
-      <c r="M94" s="12">
+      <c r="M94" s="9">
         <f t="shared" si="2"/>
         <v>42864</v>
       </c>
-      <c r="N94" s="9">
+      <c r="N94">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N93-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N93+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>515188</v>
       </c>
-      <c r="O94" s="9">
+      <c r="O94">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>299</v>
       </c>
-      <c r="P94" s="9" t="str">
+      <c r="P94" t="str">
         <f>IF(A95&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -13967,19 +13924,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L94+statek[[#This Row],[ile ton]],L94-statek[[#This Row],[ile ton]]),L94)</f>
         <v>69</v>
       </c>
-      <c r="M95" s="12">
+      <c r="M95" s="9">
         <f t="shared" si="2"/>
         <v>42882</v>
       </c>
-      <c r="N95" s="9">
+      <c r="N95">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N94-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N94+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>512931</v>
       </c>
-      <c r="O95" s="9">
+      <c r="O95">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>2257</v>
       </c>
-      <c r="P95" s="9">
+      <c r="P95">
         <f>IF(A96&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>512931</v>
       </c>
@@ -14027,19 +13984,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L95+statek[[#This Row],[ile ton]],L95-statek[[#This Row],[ile ton]]),L95)</f>
         <v>69</v>
       </c>
-      <c r="M96" s="12">
+      <c r="M96" s="9">
         <f t="shared" si="2"/>
         <v>42882</v>
       </c>
-      <c r="N96" s="9">
+      <c r="N96">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N95-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N95+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>512943</v>
       </c>
-      <c r="O96" s="9">
+      <c r="O96">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P96" s="9" t="str">
+      <c r="P96" t="str">
         <f>IF(A97&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -14087,19 +14044,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L96+statek[[#This Row],[ile ton]],L96-statek[[#This Row],[ile ton]]),L96)</f>
         <v>1</v>
       </c>
-      <c r="M97" s="12">
+      <c r="M97" s="9">
         <f t="shared" si="2"/>
         <v>42882</v>
       </c>
-      <c r="N97" s="9">
+      <c r="N97">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N96-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N96+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>516955</v>
       </c>
-      <c r="O97" s="9">
+      <c r="O97">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P97" s="9" t="str">
+      <c r="P97" t="str">
         <f>IF(A98&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -14147,19 +14104,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L97+statek[[#This Row],[ile ton]],L97-statek[[#This Row],[ile ton]]),L97)</f>
         <v>1</v>
       </c>
-      <c r="M98" s="12">
+      <c r="M98" s="9">
         <f t="shared" si="2"/>
         <v>42882</v>
       </c>
-      <c r="N98" s="9">
+      <c r="N98">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N97-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N97+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>514645</v>
       </c>
-      <c r="O98" s="9">
+      <c r="O98">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>2310</v>
       </c>
-      <c r="P98" s="9" t="str">
+      <c r="P98" t="str">
         <f>IF(A99&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -14207,19 +14164,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L98+statek[[#This Row],[ile ton]],L98-statek[[#This Row],[ile ton]]),L98)</f>
         <v>1</v>
       </c>
-      <c r="M99" s="12">
+      <c r="M99" s="9">
         <f t="shared" si="2"/>
         <v>42882</v>
       </c>
-      <c r="N99" s="9">
+      <c r="N99">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N98-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N98+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>514120</v>
       </c>
-      <c r="O99" s="9">
+      <c r="O99">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>525</v>
       </c>
-      <c r="P99" s="9" t="str">
+      <c r="P99" t="str">
         <f>IF(A100&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -14267,19 +14224,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L99+statek[[#This Row],[ile ton]],L99-statek[[#This Row],[ile ton]]),L99)</f>
         <v>1</v>
       </c>
-      <c r="M100" s="12">
+      <c r="M100" s="9">
         <f t="shared" si="2"/>
         <v>42904</v>
       </c>
-      <c r="N100" s="9">
+      <c r="N100">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N99-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N99+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>513870</v>
       </c>
-      <c r="O100" s="9">
+      <c r="O100">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>250</v>
       </c>
-      <c r="P100" s="9">
+      <c r="P100">
         <f>IF(A101&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>513870</v>
       </c>
@@ -14327,19 +14284,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L100+statek[[#This Row],[ile ton]],L100-statek[[#This Row],[ile ton]]),L100)</f>
         <v>1</v>
       </c>
-      <c r="M101" s="12">
+      <c r="M101" s="9">
         <f t="shared" si="2"/>
         <v>42904</v>
       </c>
-      <c r="N101" s="9">
+      <c r="N101">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N100-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N100+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>515276</v>
       </c>
-      <c r="O101" s="9">
+      <c r="O101">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P101" s="9" t="str">
+      <c r="P101" t="str">
         <f>IF(A102&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -14387,19 +14344,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L101+statek[[#This Row],[ile ton]],L101-statek[[#This Row],[ile ton]]),L101)</f>
         <v>1</v>
       </c>
-      <c r="M102" s="12">
+      <c r="M102" s="9">
         <f t="shared" si="2"/>
         <v>42904</v>
       </c>
-      <c r="N102" s="9">
+      <c r="N102">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N101-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N101+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>515100</v>
       </c>
-      <c r="O102" s="9">
+      <c r="O102">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>176</v>
       </c>
-      <c r="P102" s="9" t="str">
+      <c r="P102" t="str">
         <f>IF(A103&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -14447,19 +14404,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L102+statek[[#This Row],[ile ton]],L102-statek[[#This Row],[ile ton]]),L102)</f>
         <v>1</v>
       </c>
-      <c r="M103" s="12">
+      <c r="M103" s="9">
         <f t="shared" si="2"/>
         <v>42904</v>
       </c>
-      <c r="N103" s="9">
+      <c r="N103">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N102-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N102+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>514600</v>
       </c>
-      <c r="O103" s="9">
+      <c r="O103">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>500</v>
       </c>
-      <c r="P103" s="9" t="str">
+      <c r="P103" t="str">
         <f>IF(A104&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -14507,19 +14464,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L103+statek[[#This Row],[ile ton]],L103-statek[[#This Row],[ile ton]]),L103)</f>
         <v>9</v>
       </c>
-      <c r="M104" s="12">
+      <c r="M104" s="9">
         <f t="shared" si="2"/>
         <v>42904</v>
       </c>
-      <c r="N104" s="9">
+      <c r="N104">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N103-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N103+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>514288</v>
       </c>
-      <c r="O104" s="9">
+      <c r="O104">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>312</v>
       </c>
-      <c r="P104" s="9" t="str">
+      <c r="P104" t="str">
         <f>IF(A105&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -14567,19 +14524,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L104+statek[[#This Row],[ile ton]],L104-statek[[#This Row],[ile ton]]),L104)</f>
         <v>9</v>
       </c>
-      <c r="M105" s="12">
+      <c r="M105" s="9">
         <f t="shared" si="2"/>
         <v>42929</v>
       </c>
-      <c r="N105" s="9">
+      <c r="N105">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N104-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N104+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>511498</v>
       </c>
-      <c r="O105" s="9">
+      <c r="O105">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>2790</v>
       </c>
-      <c r="P105" s="9">
+      <c r="P105">
         <f>IF(A106&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>511498</v>
       </c>
@@ -14627,19 +14584,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L105+statek[[#This Row],[ile ton]],L105-statek[[#This Row],[ile ton]]),L105)</f>
         <v>9</v>
       </c>
-      <c r="M106" s="12">
+      <c r="M106" s="9">
         <f t="shared" si="2"/>
         <v>42929</v>
       </c>
-      <c r="N106" s="9">
+      <c r="N106">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N105-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N105+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>523098</v>
       </c>
-      <c r="O106" s="9">
+      <c r="O106">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P106" s="9" t="str">
+      <c r="P106" t="str">
         <f>IF(A107&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -14687,19 +14644,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L106+statek[[#This Row],[ile ton]],L106-statek[[#This Row],[ile ton]]),L106)</f>
         <v>9</v>
       </c>
-      <c r="M107" s="12">
+      <c r="M107" s="9">
         <f t="shared" si="2"/>
         <v>42942</v>
       </c>
-      <c r="N107" s="9">
+      <c r="N107">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N106-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N106+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>522547</v>
       </c>
-      <c r="O107" s="9">
+      <c r="O107">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>551</v>
       </c>
-      <c r="P107" s="9">
+      <c r="P107">
         <f>IF(A108&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>522547</v>
       </c>
@@ -14747,19 +14704,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L107+statek[[#This Row],[ile ton]],L107-statek[[#This Row],[ile ton]]),L107)</f>
         <v>9</v>
       </c>
-      <c r="M108" s="12">
+      <c r="M108" s="9">
         <f t="shared" si="2"/>
         <v>42942</v>
       </c>
-      <c r="N108" s="9">
+      <c r="N108">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N107-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N107+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>522717</v>
       </c>
-      <c r="O108" s="9">
+      <c r="O108">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P108" s="9" t="str">
+      <c r="P108" t="str">
         <f>IF(A109&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -14807,19 +14764,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L108+statek[[#This Row],[ile ton]],L108-statek[[#This Row],[ile ton]]),L108)</f>
         <v>9</v>
       </c>
-      <c r="M109" s="12">
+      <c r="M109" s="9">
         <f t="shared" si="2"/>
         <v>42942</v>
       </c>
-      <c r="N109" s="9">
+      <c r="N109">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N108-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N108+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>522959</v>
       </c>
-      <c r="O109" s="9">
+      <c r="O109">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P109" s="9" t="str">
+      <c r="P109" t="str">
         <f>IF(A110&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -14867,19 +14824,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L109+statek[[#This Row],[ile ton]],L109-statek[[#This Row],[ile ton]]),L109)</f>
         <v>9</v>
       </c>
-      <c r="M110" s="12">
+      <c r="M110" s="9">
         <f t="shared" si="2"/>
         <v>42942</v>
       </c>
-      <c r="N110" s="9">
+      <c r="N110">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N109-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N109+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>522145</v>
       </c>
-      <c r="O110" s="9">
+      <c r="O110">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>814</v>
       </c>
-      <c r="P110" s="9" t="str">
+      <c r="P110" t="str">
         <f>IF(A111&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -14927,19 +14884,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L110+statek[[#This Row],[ile ton]],L110-statek[[#This Row],[ile ton]]),L110)</f>
         <v>9</v>
       </c>
-      <c r="M111" s="12">
+      <c r="M111" s="9">
         <f t="shared" si="2"/>
         <v>42942</v>
       </c>
-      <c r="N111" s="9">
+      <c r="N111">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N110-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N110+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>521445</v>
       </c>
-      <c r="O111" s="9">
+      <c r="O111">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>700</v>
       </c>
-      <c r="P111" s="9" t="str">
+      <c r="P111" t="str">
         <f>IF(A112&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -14987,19 +14944,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L111+statek[[#This Row],[ile ton]],L111-statek[[#This Row],[ile ton]]),L111)</f>
         <v>51</v>
       </c>
-      <c r="M112" s="12">
+      <c r="M112" s="9">
         <f t="shared" si="2"/>
         <v>42959</v>
       </c>
-      <c r="N112" s="9">
+      <c r="N112">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N111-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N111+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>519597</v>
       </c>
-      <c r="O112" s="9">
+      <c r="O112">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1848</v>
       </c>
-      <c r="P112" s="9">
+      <c r="P112">
         <f>IF(A113&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>519597</v>
       </c>
@@ -15047,19 +15004,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L112+statek[[#This Row],[ile ton]],L112-statek[[#This Row],[ile ton]]),L112)</f>
         <v>51</v>
       </c>
-      <c r="M113" s="12">
+      <c r="M113" s="9">
         <f t="shared" si="2"/>
         <v>42959</v>
       </c>
-      <c r="N113" s="9">
+      <c r="N113">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N112-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N112+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>520631</v>
       </c>
-      <c r="O113" s="9">
+      <c r="O113">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P113" s="9" t="str">
+      <c r="P113" t="str">
         <f>IF(A114&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -15107,19 +15064,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L113+statek[[#This Row],[ile ton]],L113-statek[[#This Row],[ile ton]]),L113)</f>
         <v>3</v>
       </c>
-      <c r="M114" s="12">
+      <c r="M114" s="9">
         <f t="shared" si="2"/>
         <v>42959</v>
       </c>
-      <c r="N114" s="9">
+      <c r="N114">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N113-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N113+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>523463</v>
       </c>
-      <c r="O114" s="9">
+      <c r="O114">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P114" s="9" t="str">
+      <c r="P114" t="str">
         <f>IF(A115&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -15167,19 +15124,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L114+statek[[#This Row],[ile ton]],L114-statek[[#This Row],[ile ton]]),L114)</f>
         <v>3</v>
       </c>
-      <c r="M115" s="12">
+      <c r="M115" s="9">
         <f t="shared" si="2"/>
         <v>42959</v>
       </c>
-      <c r="N115" s="9">
+      <c r="N115">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N114-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N114+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>523043</v>
       </c>
-      <c r="O115" s="9">
+      <c r="O115">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>420</v>
       </c>
-      <c r="P115" s="9" t="str">
+      <c r="P115" t="str">
         <f>IF(A116&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -15227,19 +15184,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L115+statek[[#This Row],[ile ton]],L115-statek[[#This Row],[ile ton]]),L115)</f>
         <v>3</v>
       </c>
-      <c r="M116" s="12">
+      <c r="M116" s="9">
         <f t="shared" si="2"/>
         <v>42974</v>
       </c>
-      <c r="N116" s="9">
+      <c r="N116">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N115-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N115+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>522393</v>
       </c>
-      <c r="O116" s="9">
+      <c r="O116">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>650</v>
       </c>
-      <c r="P116" s="9">
+      <c r="P116">
         <f>IF(A117&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>522393</v>
       </c>
@@ -15287,19 +15244,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L116+statek[[#This Row],[ile ton]],L116-statek[[#This Row],[ile ton]]),L116)</f>
         <v>3</v>
       </c>
-      <c r="M117" s="12">
+      <c r="M117" s="9">
         <f t="shared" si="2"/>
         <v>42974</v>
       </c>
-      <c r="N117" s="9">
+      <c r="N117">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N116-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N116+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>522177</v>
       </c>
-      <c r="O117" s="9">
+      <c r="O117">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>216</v>
       </c>
-      <c r="P117" s="9" t="str">
+      <c r="P117" t="str">
         <f>IF(A118&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -15347,19 +15304,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L117+statek[[#This Row],[ile ton]],L117-statek[[#This Row],[ile ton]]),L117)</f>
         <v>3</v>
       </c>
-      <c r="M118" s="12">
+      <c r="M118" s="9">
         <f t="shared" si="2"/>
         <v>42974</v>
       </c>
-      <c r="N118" s="9">
+      <c r="N118">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N117-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N117+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>519593</v>
       </c>
-      <c r="O118" s="9">
+      <c r="O118">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>2584</v>
       </c>
-      <c r="P118" s="9" t="str">
+      <c r="P118" t="str">
         <f>IF(A119&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -15407,19 +15364,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L118+statek[[#This Row],[ile ton]],L118-statek[[#This Row],[ile ton]]),L118)</f>
         <v>3</v>
       </c>
-      <c r="M119" s="12">
+      <c r="M119" s="9">
         <f t="shared" si="2"/>
         <v>42974</v>
       </c>
-      <c r="N119" s="9">
+      <c r="N119">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N118-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N118+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>519299</v>
       </c>
-      <c r="O119" s="9">
+      <c r="O119">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>294</v>
       </c>
-      <c r="P119" s="9" t="str">
+      <c r="P119" t="str">
         <f>IF(A120&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -15467,19 +15424,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L119+statek[[#This Row],[ile ton]],L119-statek[[#This Row],[ile ton]]),L119)</f>
         <v>7</v>
       </c>
-      <c r="M120" s="12">
+      <c r="M120" s="9">
         <f t="shared" si="2"/>
         <v>42993</v>
       </c>
-      <c r="N120" s="9">
+      <c r="N120">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N119-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N119+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>519127</v>
       </c>
-      <c r="O120" s="9">
+      <c r="O120">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>172</v>
       </c>
-      <c r="P120" s="9">
+      <c r="P120">
         <f>IF(A121&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>519127</v>
       </c>
@@ -15527,19 +15484,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L120+statek[[#This Row],[ile ton]],L120-statek[[#This Row],[ile ton]]),L120)</f>
         <v>7</v>
       </c>
-      <c r="M121" s="12">
+      <c r="M121" s="9">
         <f t="shared" si="2"/>
         <v>42993</v>
       </c>
-      <c r="N121" s="9">
+      <c r="N121">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N120-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N120+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>519811</v>
       </c>
-      <c r="O121" s="9">
+      <c r="O121">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P121" s="9" t="str">
+      <c r="P121" t="str">
         <f>IF(A122&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -15587,19 +15544,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L121+statek[[#This Row],[ile ton]],L121-statek[[#This Row],[ile ton]]),L121)</f>
         <v>7</v>
       </c>
-      <c r="M122" s="12">
+      <c r="M122" s="9">
         <f t="shared" si="2"/>
         <v>43019</v>
       </c>
-      <c r="N122" s="9">
+      <c r="N122">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N121-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N121+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>517861</v>
       </c>
-      <c r="O122" s="9">
+      <c r="O122">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1950</v>
       </c>
-      <c r="P122" s="9">
+      <c r="P122">
         <f>IF(A123&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>517861</v>
       </c>
@@ -15647,19 +15604,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L122+statek[[#This Row],[ile ton]],L122-statek[[#This Row],[ile ton]]),L122)</f>
         <v>1</v>
       </c>
-      <c r="M123" s="12">
+      <c r="M123" s="9">
         <f t="shared" si="2"/>
         <v>43019</v>
       </c>
-      <c r="N123" s="9">
+      <c r="N123">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N122-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N122+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>518239</v>
       </c>
-      <c r="O123" s="9">
+      <c r="O123">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P123" s="9" t="str">
+      <c r="P123" t="str">
         <f>IF(A124&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -15707,19 +15664,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L123+statek[[#This Row],[ile ton]],L123-statek[[#This Row],[ile ton]]),L123)</f>
         <v>1</v>
       </c>
-      <c r="M124" s="12">
+      <c r="M124" s="9">
         <f t="shared" si="2"/>
         <v>43040</v>
       </c>
-      <c r="N124" s="9">
+      <c r="N124">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N123-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N123+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>515702</v>
       </c>
-      <c r="O124" s="9">
+      <c r="O124">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>2537</v>
       </c>
-      <c r="P124" s="9">
+      <c r="P124">
         <f>IF(A125&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>515702</v>
       </c>
@@ -15767,19 +15724,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L124+statek[[#This Row],[ile ton]],L124-statek[[#This Row],[ile ton]]),L124)</f>
         <v>0</v>
       </c>
-      <c r="M125" s="12">
+      <c r="M125" s="9">
         <f t="shared" si="2"/>
         <v>43040</v>
       </c>
-      <c r="N125" s="9">
+      <c r="N125">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N124-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N124+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>515763</v>
       </c>
-      <c r="O125" s="9">
+      <c r="O125">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P125" s="9" t="str">
+      <c r="P125" t="str">
         <f>IF(A126&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -15827,19 +15784,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L125+statek[[#This Row],[ile ton]],L125-statek[[#This Row],[ile ton]]),L125)</f>
         <v>0</v>
       </c>
-      <c r="M126" s="12">
+      <c r="M126" s="9">
         <f t="shared" si="2"/>
         <v>43040</v>
       </c>
-      <c r="N126" s="9">
+      <c r="N126">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N125-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N125+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>520173</v>
       </c>
-      <c r="O126" s="9">
+      <c r="O126">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P126" s="9" t="str">
+      <c r="P126" t="str">
         <f>IF(A127&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -15887,19 +15844,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L126+statek[[#This Row],[ile ton]],L126-statek[[#This Row],[ile ton]]),L126)</f>
         <v>0</v>
       </c>
-      <c r="M127" s="12">
+      <c r="M127" s="9">
         <f t="shared" si="2"/>
         <v>43040</v>
       </c>
-      <c r="N127" s="9">
+      <c r="N127">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N126-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N126+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>520053</v>
       </c>
-      <c r="O127" s="9">
+      <c r="O127">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>120</v>
       </c>
-      <c r="P127" s="9" t="str">
+      <c r="P127" t="str">
         <f>IF(A128&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -15947,19 +15904,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L127+statek[[#This Row],[ile ton]],L127-statek[[#This Row],[ile ton]]),L127)</f>
         <v>0</v>
       </c>
-      <c r="M128" s="12">
+      <c r="M128" s="9">
         <f t="shared" si="2"/>
         <v>43040</v>
       </c>
-      <c r="N128" s="9">
+      <c r="N128">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N127-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N127+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>518541</v>
       </c>
-      <c r="O128" s="9">
+      <c r="O128">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1512</v>
       </c>
-      <c r="P128" s="9" t="str">
+      <c r="P128" t="str">
         <f>IF(A129&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -16007,19 +15964,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L128+statek[[#This Row],[ile ton]],L128-statek[[#This Row],[ile ton]]),L128)</f>
         <v>0</v>
       </c>
-      <c r="M129" s="12">
+      <c r="M129" s="9">
         <f t="shared" si="2"/>
         <v>43064</v>
       </c>
-      <c r="N129" s="9">
+      <c r="N129">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N128-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N128+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>518085</v>
       </c>
-      <c r="O129" s="9">
+      <c r="O129">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>456</v>
       </c>
-      <c r="P129" s="9">
+      <c r="P129">
         <f>IF(A130&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>518085</v>
       </c>
@@ -16067,19 +16024,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L129+statek[[#This Row],[ile ton]],L129-statek[[#This Row],[ile ton]]),L129)</f>
         <v>0</v>
       </c>
-      <c r="M130" s="12">
+      <c r="M130" s="9">
         <f t="shared" ref="M130:M193" si="4">A131</f>
         <v>43064</v>
       </c>
-      <c r="N130" s="9">
+      <c r="N130">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N129-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N129+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>531351</v>
       </c>
-      <c r="O130" s="9">
+      <c r="O130">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P130" s="9" t="str">
+      <c r="P130" t="str">
         <f>IF(A131&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -16127,19 +16084,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L130+statek[[#This Row],[ile ton]],L130-statek[[#This Row],[ile ton]]),L130)</f>
         <v>12</v>
       </c>
-      <c r="M131" s="12">
+      <c r="M131" s="9">
         <f t="shared" si="4"/>
         <v>43082</v>
       </c>
-      <c r="N131" s="9">
+      <c r="N131">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N130-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N130+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>530895</v>
       </c>
-      <c r="O131" s="9">
+      <c r="O131">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>456</v>
       </c>
-      <c r="P131" s="9">
+      <c r="P131">
         <f>IF(A132&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>530895</v>
       </c>
@@ -16187,19 +16144,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L131+statek[[#This Row],[ile ton]],L131-statek[[#This Row],[ile ton]]),L131)</f>
         <v>12</v>
       </c>
-      <c r="M132" s="12">
+      <c r="M132" s="9">
         <f t="shared" si="4"/>
         <v>43082</v>
       </c>
-      <c r="N132" s="9">
+      <c r="N132">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N131-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N131+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>531015</v>
       </c>
-      <c r="O132" s="9">
+      <c r="O132">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P132" s="9" t="str">
+      <c r="P132" t="str">
         <f>IF(A133&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -16247,19 +16204,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L132+statek[[#This Row],[ile ton]],L132-statek[[#This Row],[ile ton]]),L132)</f>
         <v>12</v>
       </c>
-      <c r="M133" s="12">
+      <c r="M133" s="9">
         <f t="shared" si="4"/>
         <v>43082</v>
       </c>
-      <c r="N133" s="9">
+      <c r="N133">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N132-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N132+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>530807</v>
       </c>
-      <c r="O133" s="9">
+      <c r="O133">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>208</v>
       </c>
-      <c r="P133" s="9" t="str">
+      <c r="P133" t="str">
         <f>IF(A134&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -16307,19 +16264,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L133+statek[[#This Row],[ile ton]],L133-statek[[#This Row],[ile ton]]),L133)</f>
         <v>12</v>
       </c>
-      <c r="M134" s="12">
+      <c r="M134" s="9">
         <f t="shared" si="4"/>
         <v>43104</v>
       </c>
-      <c r="N134" s="9">
+      <c r="N134">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N133-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N133+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>528299</v>
       </c>
-      <c r="O134" s="9">
+      <c r="O134">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>2508</v>
       </c>
-      <c r="P134" s="9">
+      <c r="P134">
         <f>IF(A135&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>528299</v>
       </c>
@@ -16367,19 +16324,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L134+statek[[#This Row],[ile ton]],L134-statek[[#This Row],[ile ton]]),L134)</f>
         <v>12</v>
       </c>
-      <c r="M135" s="12">
+      <c r="M135" s="9">
         <f t="shared" si="4"/>
         <v>43104</v>
       </c>
-      <c r="N135" s="9">
+      <c r="N135">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N134-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N134+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>532023</v>
       </c>
-      <c r="O135" s="9">
+      <c r="O135">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P135" s="9" t="str">
+      <c r="P135" t="str">
         <f>IF(A136&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -16427,19 +16384,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L135+statek[[#This Row],[ile ton]],L135-statek[[#This Row],[ile ton]]),L135)</f>
         <v>12</v>
       </c>
-      <c r="M136" s="12">
+      <c r="M136" s="9">
         <f t="shared" si="4"/>
         <v>43104</v>
       </c>
-      <c r="N136" s="9">
+      <c r="N136">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N135-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N135+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>533651</v>
       </c>
-      <c r="O136" s="9">
+      <c r="O136">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P136" s="9" t="str">
+      <c r="P136" t="str">
         <f>IF(A137&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -16487,19 +16444,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L136+statek[[#This Row],[ile ton]],L136-statek[[#This Row],[ile ton]]),L136)</f>
         <v>12</v>
       </c>
-      <c r="M137" s="12">
+      <c r="M137" s="9">
         <f t="shared" si="4"/>
         <v>43104</v>
       </c>
-      <c r="N137" s="9">
+      <c r="N137">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N136-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N136+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>533483</v>
       </c>
-      <c r="O137" s="9">
+      <c r="O137">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>168</v>
       </c>
-      <c r="P137" s="9" t="str">
+      <c r="P137" t="str">
         <f>IF(A138&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -16547,19 +16504,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L137+statek[[#This Row],[ile ton]],L137-statek[[#This Row],[ile ton]]),L137)</f>
         <v>22</v>
       </c>
-      <c r="M138" s="12">
+      <c r="M138" s="9">
         <f t="shared" si="4"/>
         <v>43129</v>
       </c>
-      <c r="N138" s="9">
+      <c r="N138">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N137-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N137+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>533093</v>
       </c>
-      <c r="O138" s="9">
+      <c r="O138">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>390</v>
       </c>
-      <c r="P138" s="9">
+      <c r="P138">
         <f>IF(A139&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>533093</v>
       </c>
@@ -16607,19 +16564,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L138+statek[[#This Row],[ile ton]],L138-statek[[#This Row],[ile ton]]),L138)</f>
         <v>22</v>
       </c>
-      <c r="M139" s="12">
+      <c r="M139" s="9">
         <f t="shared" si="4"/>
         <v>43129</v>
       </c>
-      <c r="N139" s="9">
+      <c r="N139">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N138-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N138+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>533663</v>
       </c>
-      <c r="O139" s="9">
+      <c r="O139">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P139" s="9" t="str">
+      <c r="P139" t="str">
         <f>IF(A140&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -16667,19 +16624,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L139+statek[[#This Row],[ile ton]],L139-statek[[#This Row],[ile ton]]),L139)</f>
         <v>0</v>
       </c>
-      <c r="M140" s="12">
+      <c r="M140" s="9">
         <f t="shared" si="4"/>
         <v>43129</v>
       </c>
-      <c r="N140" s="9">
+      <c r="N140">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N139-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N139+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>535049</v>
       </c>
-      <c r="O140" s="9">
+      <c r="O140">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P140" s="9" t="str">
+      <c r="P140" t="str">
         <f>IF(A141&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -16727,19 +16684,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L140+statek[[#This Row],[ile ton]],L140-statek[[#This Row],[ile ton]]),L140)</f>
         <v>0</v>
       </c>
-      <c r="M141" s="12">
+      <c r="M141" s="9">
         <f t="shared" si="4"/>
         <v>43129</v>
       </c>
-      <c r="N141" s="9">
+      <c r="N141">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N140-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N140+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>534509</v>
       </c>
-      <c r="O141" s="9">
+      <c r="O141">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>540</v>
       </c>
-      <c r="P141" s="9" t="str">
+      <c r="P141" t="str">
         <f>IF(A142&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -16787,19 +16744,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L141+statek[[#This Row],[ile ton]],L141-statek[[#This Row],[ile ton]]),L141)</f>
         <v>0</v>
       </c>
-      <c r="M142" s="12">
+      <c r="M142" s="9">
         <f t="shared" si="4"/>
         <v>43129</v>
       </c>
-      <c r="N142" s="9">
+      <c r="N142">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N141-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N141+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>534395</v>
       </c>
-      <c r="O142" s="9">
+      <c r="O142">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>114</v>
       </c>
-      <c r="P142" s="9" t="str">
+      <c r="P142" t="str">
         <f>IF(A143&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -16847,19 +16804,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L142+statek[[#This Row],[ile ton]],L142-statek[[#This Row],[ile ton]]),L142)</f>
         <v>0</v>
       </c>
-      <c r="M143" s="12">
+      <c r="M143" s="9">
         <f t="shared" si="4"/>
         <v>43130</v>
       </c>
-      <c r="N143" s="9">
+      <c r="N143">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N142-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N142+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>534363</v>
       </c>
-      <c r="O143" s="9">
+      <c r="O143">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>32</v>
       </c>
-      <c r="P143" s="9">
+      <c r="P143">
         <f>IF(A144&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>534363</v>
       </c>
@@ -16907,19 +16864,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L143+statek[[#This Row],[ile ton]],L143-statek[[#This Row],[ile ton]]),L143)</f>
         <v>0</v>
       </c>
-      <c r="M144" s="12">
+      <c r="M144" s="9">
         <f t="shared" si="4"/>
         <v>43130</v>
       </c>
-      <c r="N144" s="9">
+      <c r="N144">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N143-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N143+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>534513</v>
       </c>
-      <c r="O144" s="9">
+      <c r="O144">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P144" s="9" t="str">
+      <c r="P144" t="str">
         <f>IF(A145&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -16967,19 +16924,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L144+statek[[#This Row],[ile ton]],L144-statek[[#This Row],[ile ton]]),L144)</f>
         <v>0</v>
       </c>
-      <c r="M145" s="12">
+      <c r="M145" s="9">
         <f t="shared" si="4"/>
         <v>43147</v>
       </c>
-      <c r="N145" s="9">
+      <c r="N145">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N144-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N144+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>530721</v>
       </c>
-      <c r="O145" s="9">
+      <c r="O145">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>3792</v>
       </c>
-      <c r="P145" s="9">
+      <c r="P145">
         <f>IF(A146&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>530721</v>
       </c>
@@ -17027,19 +16984,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L145+statek[[#This Row],[ile ton]],L145-statek[[#This Row],[ile ton]]),L145)</f>
         <v>34</v>
       </c>
-      <c r="M146" s="12">
+      <c r="M146" s="9">
         <f t="shared" si="4"/>
         <v>43147</v>
       </c>
-      <c r="N146" s="9">
+      <c r="N146">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N145-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N145+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>529293</v>
       </c>
-      <c r="O146" s="9">
+      <c r="O146">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1428</v>
       </c>
-      <c r="P146" s="9" t="str">
+      <c r="P146" t="str">
         <f>IF(A147&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -17087,19 +17044,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L146+statek[[#This Row],[ile ton]],L146-statek[[#This Row],[ile ton]]),L146)</f>
         <v>34</v>
       </c>
-      <c r="M147" s="12">
+      <c r="M147" s="9">
         <f t="shared" si="4"/>
         <v>43147</v>
       </c>
-      <c r="N147" s="9">
+      <c r="N147">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N146-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N146+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>531008</v>
       </c>
-      <c r="O147" s="9">
+      <c r="O147">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P147" s="9" t="str">
+      <c r="P147" t="str">
         <f>IF(A148&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -17147,19 +17104,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L147+statek[[#This Row],[ile ton]],L147-statek[[#This Row],[ile ton]]),L147)</f>
         <v>34</v>
       </c>
-      <c r="M148" s="12">
+      <c r="M148" s="9">
         <f t="shared" si="4"/>
         <v>43147</v>
       </c>
-      <c r="N148" s="9">
+      <c r="N148">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N147-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N147+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>530928</v>
       </c>
-      <c r="O148" s="9">
+      <c r="O148">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>80</v>
       </c>
-      <c r="P148" s="9" t="str">
+      <c r="P148" t="str">
         <f>IF(A149&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -17207,19 +17164,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L148+statek[[#This Row],[ile ton]],L148-statek[[#This Row],[ile ton]]),L148)</f>
         <v>34</v>
       </c>
-      <c r="M149" s="12">
+      <c r="M149" s="9">
         <f t="shared" si="4"/>
         <v>43147</v>
       </c>
-      <c r="N149" s="9">
+      <c r="N149">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N148-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N148+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>529941</v>
       </c>
-      <c r="O149" s="9">
+      <c r="O149">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>987</v>
       </c>
-      <c r="P149" s="9" t="str">
+      <c r="P149" t="str">
         <f>IF(A150&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -17267,19 +17224,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L149+statek[[#This Row],[ile ton]],L149-statek[[#This Row],[ile ton]]),L149)</f>
         <v>34</v>
       </c>
-      <c r="M150" s="12">
+      <c r="M150" s="9">
         <f t="shared" si="4"/>
         <v>43162</v>
       </c>
-      <c r="N150" s="9">
+      <c r="N150">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N149-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N149+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>526773</v>
       </c>
-      <c r="O150" s="9">
+      <c r="O150">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>3168</v>
       </c>
-      <c r="P150" s="9">
+      <c r="P150">
         <f>IF(A151&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>526773</v>
       </c>
@@ -17327,19 +17284,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L150+statek[[#This Row],[ile ton]],L150-statek[[#This Row],[ile ton]]),L150)</f>
         <v>0</v>
       </c>
-      <c r="M151" s="12">
+      <c r="M151" s="9">
         <f t="shared" si="4"/>
         <v>43162</v>
       </c>
-      <c r="N151" s="9">
+      <c r="N151">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N150-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N150+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>528745</v>
       </c>
-      <c r="O151" s="9">
+      <c r="O151">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P151" s="9" t="str">
+      <c r="P151" t="str">
         <f>IF(A152&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -17387,19 +17344,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L151+statek[[#This Row],[ile ton]],L151-statek[[#This Row],[ile ton]]),L151)</f>
         <v>0</v>
       </c>
-      <c r="M152" s="12">
+      <c r="M152" s="9">
         <f t="shared" si="4"/>
         <v>43181</v>
       </c>
-      <c r="N152" s="9">
+      <c r="N152">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N151-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N151+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>528700</v>
       </c>
-      <c r="O152" s="9">
+      <c r="O152">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>45</v>
       </c>
-      <c r="P152" s="9">
+      <c r="P152">
         <f>IF(A153&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>528700</v>
       </c>
@@ -17447,19 +17404,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L152+statek[[#This Row],[ile ton]],L152-statek[[#This Row],[ile ton]]),L152)</f>
         <v>0</v>
       </c>
-      <c r="M153" s="12">
+      <c r="M153" s="9">
         <f t="shared" si="4"/>
         <v>43181</v>
       </c>
-      <c r="N153" s="9">
+      <c r="N153">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N152-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N152+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>530080</v>
       </c>
-      <c r="O153" s="9">
+      <c r="O153">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P153" s="9" t="str">
+      <c r="P153" t="str">
         <f>IF(A154&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -17507,19 +17464,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L153+statek[[#This Row],[ile ton]],L153-statek[[#This Row],[ile ton]]),L153)</f>
         <v>0</v>
       </c>
-      <c r="M154" s="12">
+      <c r="M154" s="9">
         <f t="shared" si="4"/>
         <v>43181</v>
       </c>
-      <c r="N154" s="9">
+      <c r="N154">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N153-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N153+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>526895</v>
       </c>
-      <c r="O154" s="9">
+      <c r="O154">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>3185</v>
       </c>
-      <c r="P154" s="9" t="str">
+      <c r="P154" t="str">
         <f>IF(A155&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -17567,19 +17524,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L154+statek[[#This Row],[ile ton]],L154-statek[[#This Row],[ile ton]]),L154)</f>
         <v>0</v>
       </c>
-      <c r="M155" s="12">
+      <c r="M155" s="9">
         <f t="shared" si="4"/>
         <v>43207</v>
       </c>
-      <c r="N155" s="9">
+      <c r="N155">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N154-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N154+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>526767</v>
       </c>
-      <c r="O155" s="9">
+      <c r="O155">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>128</v>
       </c>
-      <c r="P155" s="9">
+      <c r="P155">
         <f>IF(A156&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>526767</v>
       </c>
@@ -17627,19 +17584,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L155+statek[[#This Row],[ile ton]],L155-statek[[#This Row],[ile ton]]),L155)</f>
         <v>5</v>
       </c>
-      <c r="M156" s="12">
+      <c r="M156" s="9">
         <f t="shared" si="4"/>
         <v>43207</v>
       </c>
-      <c r="N156" s="9">
+      <c r="N156">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N155-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N155+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>526582</v>
       </c>
-      <c r="O156" s="9">
+      <c r="O156">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>185</v>
       </c>
-      <c r="P156" s="9" t="str">
+      <c r="P156" t="str">
         <f>IF(A157&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -17687,19 +17644,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L156+statek[[#This Row],[ile ton]],L156-statek[[#This Row],[ile ton]]),L156)</f>
         <v>5</v>
       </c>
-      <c r="M157" s="12">
+      <c r="M157" s="9">
         <f t="shared" si="4"/>
         <v>43207</v>
       </c>
-      <c r="N157" s="9">
+      <c r="N157">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N156-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N156+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>526614</v>
       </c>
-      <c r="O157" s="9">
+      <c r="O157">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P157" s="9" t="str">
+      <c r="P157" t="str">
         <f>IF(A158&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -17747,19 +17704,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L157+statek[[#This Row],[ile ton]],L157-statek[[#This Row],[ile ton]]),L157)</f>
         <v>5</v>
       </c>
-      <c r="M158" s="12">
+      <c r="M158" s="9">
         <f t="shared" si="4"/>
         <v>43207</v>
       </c>
-      <c r="N158" s="9">
+      <c r="N158">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N157-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N157+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>526376</v>
       </c>
-      <c r="O158" s="9">
+      <c r="O158">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>238</v>
       </c>
-      <c r="P158" s="9" t="str">
+      <c r="P158" t="str">
         <f>IF(A159&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -17807,19 +17764,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L158+statek[[#This Row],[ile ton]],L158-statek[[#This Row],[ile ton]]),L158)</f>
         <v>5</v>
       </c>
-      <c r="M159" s="12">
+      <c r="M159" s="9">
         <f t="shared" si="4"/>
         <v>43228</v>
       </c>
-      <c r="N159" s="9">
+      <c r="N159">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N158-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N158+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>524665</v>
       </c>
-      <c r="O159" s="9">
+      <c r="O159">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1711</v>
       </c>
-      <c r="P159" s="9">
+      <c r="P159">
         <f>IF(A160&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>524665</v>
       </c>
@@ -17867,19 +17824,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L159+statek[[#This Row],[ile ton]],L159-statek[[#This Row],[ile ton]]),L159)</f>
         <v>5</v>
       </c>
-      <c r="M160" s="12">
+      <c r="M160" s="9">
         <f t="shared" si="4"/>
         <v>43228</v>
       </c>
-      <c r="N160" s="9">
+      <c r="N160">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N159-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N159+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>523849</v>
       </c>
-      <c r="O160" s="9">
+      <c r="O160">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>816</v>
       </c>
-      <c r="P160" s="9" t="str">
+      <c r="P160" t="str">
         <f>IF(A161&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -17927,19 +17884,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L160+statek[[#This Row],[ile ton]],L160-statek[[#This Row],[ile ton]]),L160)</f>
         <v>5</v>
       </c>
-      <c r="M161" s="12">
+      <c r="M161" s="9">
         <f t="shared" si="4"/>
         <v>43228</v>
       </c>
-      <c r="N161" s="9">
+      <c r="N161">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N160-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N160+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>523309</v>
       </c>
-      <c r="O161" s="9">
+      <c r="O161">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>540</v>
       </c>
-      <c r="P161" s="9" t="str">
+      <c r="P161" t="str">
         <f>IF(A162&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -17987,19 +17944,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L161+statek[[#This Row],[ile ton]],L161-statek[[#This Row],[ile ton]]),L161)</f>
         <v>5</v>
       </c>
-      <c r="M162" s="12">
+      <c r="M162" s="9">
         <f t="shared" si="4"/>
         <v>43252</v>
       </c>
-      <c r="N162" s="9">
+      <c r="N162">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N161-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N161+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>522989</v>
       </c>
-      <c r="O162" s="9">
+      <c r="O162">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>320</v>
       </c>
-      <c r="P162" s="9">
+      <c r="P162">
         <f>IF(A163&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>522989</v>
       </c>
@@ -18047,19 +18004,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L162+statek[[#This Row],[ile ton]],L162-statek[[#This Row],[ile ton]]),L162)</f>
         <v>5</v>
       </c>
-      <c r="M163" s="12">
+      <c r="M163" s="9">
         <f t="shared" si="4"/>
         <v>43252</v>
       </c>
-      <c r="N163" s="9">
+      <c r="N163">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N162-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N162+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>541205</v>
       </c>
-      <c r="O163" s="9">
+      <c r="O163">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P163" s="9" t="str">
+      <c r="P163" t="str">
         <f>IF(A164&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -18107,19 +18064,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L163+statek[[#This Row],[ile ton]],L163-statek[[#This Row],[ile ton]]),L163)</f>
         <v>53</v>
       </c>
-      <c r="M164" s="12">
+      <c r="M164" s="9">
         <f t="shared" si="4"/>
         <v>43252</v>
       </c>
-      <c r="N164" s="9">
+      <c r="N164">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N163-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N163+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>539381</v>
       </c>
-      <c r="O164" s="9">
+      <c r="O164">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1824</v>
       </c>
-      <c r="P164" s="9" t="str">
+      <c r="P164" t="str">
         <f>IF(A165&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -18167,19 +18124,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L164+statek[[#This Row],[ile ton]],L164-statek[[#This Row],[ile ton]]),L164)</f>
         <v>53</v>
       </c>
-      <c r="M165" s="12">
+      <c r="M165" s="9">
         <f t="shared" si="4"/>
         <v>43270</v>
       </c>
-      <c r="N165" s="9">
+      <c r="N165">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N164-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N164+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>538898</v>
       </c>
-      <c r="O165" s="9">
+      <c r="O165">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>483</v>
       </c>
-      <c r="P165" s="9">
+      <c r="P165">
         <f>IF(A166&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>538898</v>
       </c>
@@ -18227,19 +18184,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L165+statek[[#This Row],[ile ton]],L165-statek[[#This Row],[ile ton]]),L165)</f>
         <v>53</v>
       </c>
-      <c r="M166" s="12">
+      <c r="M166" s="9">
         <f t="shared" si="4"/>
         <v>43270</v>
       </c>
-      <c r="N166" s="9">
+      <c r="N166">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N165-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N165+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>535796</v>
       </c>
-      <c r="O166" s="9">
+      <c r="O166">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>3102</v>
       </c>
-      <c r="P166" s="9" t="str">
+      <c r="P166" t="str">
         <f>IF(A167&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -18287,19 +18244,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L166+statek[[#This Row],[ile ton]],L166-statek[[#This Row],[ile ton]]),L166)</f>
         <v>53</v>
       </c>
-      <c r="M167" s="12">
+      <c r="M167" s="9">
         <f t="shared" si="4"/>
         <v>43270</v>
       </c>
-      <c r="N167" s="9">
+      <c r="N167">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N166-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N166+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>535646</v>
       </c>
-      <c r="O167" s="9">
+      <c r="O167">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>150</v>
       </c>
-      <c r="P167" s="9" t="str">
+      <c r="P167" t="str">
         <f>IF(A168&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -18347,19 +18304,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L167+statek[[#This Row],[ile ton]],L167-statek[[#This Row],[ile ton]]),L167)</f>
         <v>100</v>
       </c>
-      <c r="M168" s="12">
+      <c r="M168" s="9">
         <f t="shared" si="4"/>
         <v>43292</v>
       </c>
-      <c r="N168" s="9">
+      <c r="N168">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N167-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N167+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>533719</v>
       </c>
-      <c r="O168" s="9">
+      <c r="O168">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1927</v>
       </c>
-      <c r="P168" s="9">
+      <c r="P168">
         <f>IF(A169&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>533719</v>
       </c>
@@ -18407,19 +18364,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L168+statek[[#This Row],[ile ton]],L168-statek[[#This Row],[ile ton]]),L168)</f>
         <v>100</v>
       </c>
-      <c r="M169" s="12">
+      <c r="M169" s="9">
         <f t="shared" si="4"/>
         <v>43292</v>
       </c>
-      <c r="N169" s="9">
+      <c r="N169">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N168-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N168+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>536023</v>
       </c>
-      <c r="O169" s="9">
+      <c r="O169">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P169" s="9" t="str">
+      <c r="P169" t="str">
         <f>IF(A170&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -18467,19 +18424,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L169+statek[[#This Row],[ile ton]],L169-statek[[#This Row],[ile ton]]),L169)</f>
         <v>100</v>
       </c>
-      <c r="M170" s="12">
+      <c r="M170" s="9">
         <f t="shared" si="4"/>
         <v>43292</v>
       </c>
-      <c r="N170" s="9">
+      <c r="N170">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N169-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N169+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>537799</v>
       </c>
-      <c r="O170" s="9">
+      <c r="O170">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P170" s="9" t="str">
+      <c r="P170" t="str">
         <f>IF(A171&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -18527,19 +18484,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L170+statek[[#This Row],[ile ton]],L170-statek[[#This Row],[ile ton]]),L170)</f>
         <v>100</v>
       </c>
-      <c r="M171" s="12">
+      <c r="M171" s="9">
         <f t="shared" si="4"/>
         <v>43292</v>
       </c>
-      <c r="N171" s="9">
+      <c r="N171">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N170-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N170+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>536683</v>
       </c>
-      <c r="O171" s="9">
+      <c r="O171">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1116</v>
       </c>
-      <c r="P171" s="9" t="str">
+      <c r="P171" t="str">
         <f>IF(A172&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -18587,19 +18544,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L171+statek[[#This Row],[ile ton]],L171-statek[[#This Row],[ile ton]]),L171)</f>
         <v>125</v>
       </c>
-      <c r="M172" s="12">
+      <c r="M172" s="9">
         <f t="shared" si="4"/>
         <v>43292</v>
       </c>
-      <c r="N172" s="9">
+      <c r="N172">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N171-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N171+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>535708</v>
       </c>
-      <c r="O172" s="9">
+      <c r="O172">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>975</v>
       </c>
-      <c r="P172" s="9" t="str">
+      <c r="P172" t="str">
         <f>IF(A173&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -18647,19 +18604,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L172+statek[[#This Row],[ile ton]],L172-statek[[#This Row],[ile ton]]),L172)</f>
         <v>125</v>
       </c>
-      <c r="M173" s="14">
+      <c r="M173" s="11">
         <f t="shared" si="4"/>
         <v>43317</v>
       </c>
-      <c r="N173" s="11">
+      <c r="N173" s="5">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N172-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N172+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>535668</v>
       </c>
-      <c r="O173" s="11">
+      <c r="O173" s="5">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>40</v>
       </c>
-      <c r="P173" s="11">
+      <c r="P173" s="5">
         <f>IF(A174&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>535668</v>
       </c>
@@ -18707,19 +18664,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L173+statek[[#This Row],[ile ton]],L173-statek[[#This Row],[ile ton]]),L173)</f>
         <v>125</v>
       </c>
-      <c r="M174" s="12">
+      <c r="M174" s="9">
         <f t="shared" si="4"/>
         <v>43317</v>
       </c>
-      <c r="N174" s="9">
+      <c r="N174">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N173-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N173+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>536162</v>
       </c>
-      <c r="O174" s="9">
+      <c r="O174">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P174" s="9" t="str">
+      <c r="P174" t="str">
         <f>IF(A175&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -18767,19 +18724,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L174+statek[[#This Row],[ile ton]],L174-statek[[#This Row],[ile ton]]),L174)</f>
         <v>4</v>
       </c>
-      <c r="M175" s="12">
+      <c r="M175" s="9">
         <f t="shared" si="4"/>
         <v>43317</v>
       </c>
-      <c r="N175" s="9">
+      <c r="N175">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N174-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N174+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>543785</v>
       </c>
-      <c r="O175" s="9">
+      <c r="O175">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P175" s="9" t="str">
+      <c r="P175" t="str">
         <f>IF(A176&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -18827,19 +18784,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L175+statek[[#This Row],[ile ton]],L175-statek[[#This Row],[ile ton]]),L175)</f>
         <v>4</v>
       </c>
-      <c r="M176" s="12">
+      <c r="M176" s="9">
         <f t="shared" si="4"/>
         <v>43317</v>
       </c>
-      <c r="N176" s="9">
+      <c r="N176">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N175-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N175+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>543215</v>
       </c>
-      <c r="O176" s="9">
+      <c r="O176">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>570</v>
       </c>
-      <c r="P176" s="9" t="str">
+      <c r="P176" t="str">
         <f>IF(A177&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -18887,19 +18844,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L176+statek[[#This Row],[ile ton]],L176-statek[[#This Row],[ile ton]]),L176)</f>
         <v>4</v>
       </c>
-      <c r="M177" s="12">
+      <c r="M177" s="9">
         <f t="shared" si="4"/>
         <v>43330</v>
       </c>
-      <c r="N177" s="9">
+      <c r="N177">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N176-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N176+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>542847</v>
       </c>
-      <c r="O177" s="9">
+      <c r="O177">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>368</v>
       </c>
-      <c r="P177" s="9">
+      <c r="P177">
         <f>IF(A178&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>542847</v>
       </c>
@@ -18947,19 +18904,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L177+statek[[#This Row],[ile ton]],L177-statek[[#This Row],[ile ton]]),L177)</f>
         <v>4</v>
       </c>
-      <c r="M178" s="12">
+      <c r="M178" s="9">
         <f t="shared" si="4"/>
         <v>43330</v>
       </c>
-      <c r="N178" s="9">
+      <c r="N178">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N177-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N177+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>543386</v>
       </c>
-      <c r="O178" s="9">
+      <c r="O178">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P178" s="9" t="str">
+      <c r="P178" t="str">
         <f>IF(A179&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -19007,19 +18964,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L178+statek[[#This Row],[ile ton]],L178-statek[[#This Row],[ile ton]]),L178)</f>
         <v>4</v>
       </c>
-      <c r="M179" s="12">
+      <c r="M179" s="9">
         <f t="shared" si="4"/>
         <v>43330</v>
       </c>
-      <c r="N179" s="9">
+      <c r="N179">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N178-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N178+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>548876</v>
       </c>
-      <c r="O179" s="9">
+      <c r="O179">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P179" s="9" t="str">
+      <c r="P179" t="str">
         <f>IF(A180&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -19067,19 +19024,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L179+statek[[#This Row],[ile ton]],L179-statek[[#This Row],[ile ton]]),L179)</f>
         <v>4</v>
       </c>
-      <c r="M180" s="12">
+      <c r="M180" s="9">
         <f t="shared" si="4"/>
         <v>43330</v>
       </c>
-      <c r="N180" s="9">
+      <c r="N180">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N179-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N179+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>548458</v>
       </c>
-      <c r="O180" s="9">
+      <c r="O180">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>418</v>
       </c>
-      <c r="P180" s="9" t="str">
+      <c r="P180" t="str">
         <f>IF(A181&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -19127,19 +19084,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L180+statek[[#This Row],[ile ton]],L180-statek[[#This Row],[ile ton]]),L180)</f>
         <v>26</v>
       </c>
-      <c r="M181" s="12">
+      <c r="M181" s="9">
         <f t="shared" si="4"/>
         <v>43347</v>
       </c>
-      <c r="N181" s="9">
+      <c r="N181">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N180-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N180+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>547490</v>
       </c>
-      <c r="O181" s="9">
+      <c r="O181">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>968</v>
       </c>
-      <c r="P181" s="9">
+      <c r="P181">
         <f>IF(A182&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>547490</v>
       </c>
@@ -19187,19 +19144,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L181+statek[[#This Row],[ile ton]],L181-statek[[#This Row],[ile ton]]),L181)</f>
         <v>26</v>
       </c>
-      <c r="M182" s="12">
+      <c r="M182" s="9">
         <f t="shared" si="4"/>
         <v>43347</v>
       </c>
-      <c r="N182" s="9">
+      <c r="N182">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N181-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N181+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>547265</v>
       </c>
-      <c r="O182" s="9">
+      <c r="O182">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>225</v>
       </c>
-      <c r="P182" s="9" t="str">
+      <c r="P182" t="str">
         <f>IF(A183&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -19247,19 +19204,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L182+statek[[#This Row],[ile ton]],L182-statek[[#This Row],[ile ton]]),L182)</f>
         <v>26</v>
       </c>
-      <c r="M183" s="12">
+      <c r="M183" s="9">
         <f t="shared" si="4"/>
         <v>43347</v>
       </c>
-      <c r="N183" s="9">
+      <c r="N183">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N182-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N182+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>547641</v>
       </c>
-      <c r="O183" s="9">
+      <c r="O183">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P183" s="9" t="str">
+      <c r="P183" t="str">
         <f>IF(A184&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -19307,19 +19264,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L183+statek[[#This Row],[ile ton]],L183-statek[[#This Row],[ile ton]]),L183)</f>
         <v>26</v>
       </c>
-      <c r="M184" s="12">
+      <c r="M184" s="9">
         <f t="shared" si="4"/>
         <v>43347</v>
       </c>
-      <c r="N184" s="9">
+      <c r="N184">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N183-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N183+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>547473</v>
       </c>
-      <c r="O184" s="9">
+      <c r="O184">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>168</v>
       </c>
-      <c r="P184" s="9" t="str">
+      <c r="P184" t="str">
         <f>IF(A185&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -19367,19 +19324,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L184+statek[[#This Row],[ile ton]],L184-statek[[#This Row],[ile ton]]),L184)</f>
         <v>26</v>
       </c>
-      <c r="M185" s="12">
+      <c r="M185" s="9">
         <f t="shared" si="4"/>
         <v>43362</v>
       </c>
-      <c r="N185" s="9">
+      <c r="N185">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N184-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N184+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>547097</v>
       </c>
-      <c r="O185" s="9">
+      <c r="O185">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>376</v>
       </c>
-      <c r="P185" s="9">
+      <c r="P185">
         <f>IF(A186&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>547097</v>
       </c>
@@ -19427,19 +19384,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L185+statek[[#This Row],[ile ton]],L185-statek[[#This Row],[ile ton]]),L185)</f>
         <v>26</v>
       </c>
-      <c r="M186" s="12">
+      <c r="M186" s="9">
         <f t="shared" si="4"/>
         <v>43362</v>
       </c>
-      <c r="N186" s="9">
+      <c r="N186">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N185-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N185+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>549475</v>
       </c>
-      <c r="O186" s="9">
+      <c r="O186">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P186" s="9" t="str">
+      <c r="P186" t="str">
         <f>IF(A187&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -19487,19 +19444,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L186+statek[[#This Row],[ile ton]],L186-statek[[#This Row],[ile ton]]),L186)</f>
         <v>0</v>
       </c>
-      <c r="M187" s="12">
+      <c r="M187" s="9">
         <f t="shared" si="4"/>
         <v>43362</v>
       </c>
-      <c r="N187" s="9">
+      <c r="N187">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N186-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N186+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>550983</v>
       </c>
-      <c r="O187" s="9">
+      <c r="O187">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P187" s="9" t="str">
+      <c r="P187" t="str">
         <f>IF(A188&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -19547,19 +19504,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L187+statek[[#This Row],[ile ton]],L187-statek[[#This Row],[ile ton]]),L187)</f>
         <v>0</v>
       </c>
-      <c r="M188" s="12">
+      <c r="M188" s="9">
         <f t="shared" si="4"/>
         <v>43362</v>
       </c>
-      <c r="N188" s="9">
+      <c r="N188">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N187-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N187+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>550767</v>
       </c>
-      <c r="O188" s="9">
+      <c r="O188">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>216</v>
       </c>
-      <c r="P188" s="9" t="str">
+      <c r="P188" t="str">
         <f>IF(A189&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -19607,19 +19564,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L188+statek[[#This Row],[ile ton]],L188-statek[[#This Row],[ile ton]]),L188)</f>
         <v>0</v>
       </c>
-      <c r="M189" s="12">
+      <c r="M189" s="9">
         <f t="shared" si="4"/>
         <v>43362</v>
       </c>
-      <c r="N189" s="9">
+      <c r="N189">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N188-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N188+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>549831</v>
       </c>
-      <c r="O189" s="9">
+      <c r="O189">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>936</v>
       </c>
-      <c r="P189" s="9" t="str">
+      <c r="P189" t="str">
         <f>IF(A190&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -19667,19 +19624,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L189+statek[[#This Row],[ile ton]],L189-statek[[#This Row],[ile ton]]),L189)</f>
         <v>0</v>
       </c>
-      <c r="M190" s="12">
+      <c r="M190" s="9">
         <f t="shared" si="4"/>
         <v>43381</v>
       </c>
-      <c r="N190" s="9">
+      <c r="N190">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N189-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N189+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>549423</v>
       </c>
-      <c r="O190" s="9">
+      <c r="O190">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>408</v>
       </c>
-      <c r="P190" s="9">
+      <c r="P190">
         <f>IF(A191&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>549423</v>
       </c>
@@ -19727,19 +19684,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L190+statek[[#This Row],[ile ton]],L190-statek[[#This Row],[ile ton]]),L190)</f>
         <v>0</v>
       </c>
-      <c r="M191" s="12">
+      <c r="M191" s="9">
         <f t="shared" si="4"/>
         <v>43381</v>
       </c>
-      <c r="N191" s="9">
+      <c r="N191">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N190-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N190+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>551043</v>
       </c>
-      <c r="O191" s="9">
+      <c r="O191">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P191" s="9" t="str">
+      <c r="P191" t="str">
         <f>IF(A192&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -19787,79 +19744,79 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L191+statek[[#This Row],[ile ton]],L191-statek[[#This Row],[ile ton]]),L191)</f>
         <v>0</v>
       </c>
-      <c r="M192" s="12">
+      <c r="M192" s="9">
         <f t="shared" si="4"/>
         <v>43381</v>
       </c>
-      <c r="N192" s="9">
+      <c r="N192">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N191-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N191+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>550899</v>
       </c>
-      <c r="O192" s="9">
+      <c r="O192">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>144</v>
       </c>
-      <c r="P192" s="9" t="str">
+      <c r="P192" t="str">
         <f>IF(A193&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="16">
+    <row r="193" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="13">
         <v>43381</v>
       </c>
-      <c r="B193" s="17" t="s">
+      <c r="B193" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C193" s="17" t="s">
+      <c r="C193" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D193" s="17" t="s">
+      <c r="D193" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E193" s="17">
+      <c r="E193" s="14">
         <v>20</v>
       </c>
-      <c r="F193" s="17">
+      <c r="F193" s="14">
         <v>41</v>
       </c>
-      <c r="G193" s="17">
+      <c r="G193" s="14">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="H193" s="17">
+      <c r="H193" s="14">
         <f>IF(statek[[#This Row],[towar]] = "T1",IF(statek[[#This Row],[Z/W]] = "Z",H192+statek[[#This Row],[ile ton]],H192-statek[[#This Row],[ile ton]]),H192)</f>
         <v>89</v>
       </c>
-      <c r="I193" s="17">
+      <c r="I193" s="14">
         <f>IF(statek[[#This Row],[towar]] = "T2",IF(statek[[#This Row],[Z/W]] = "Z",I192+statek[[#This Row],[ile ton]],I192-statek[[#This Row],[ile ton]]),I192)</f>
         <v>0</v>
       </c>
-      <c r="J193" s="17">
+      <c r="J193" s="14">
         <f>IF(statek[[#This Row],[towar]] = "T3",IF(statek[[#This Row],[Z/W]] = "Z",J192+statek[[#This Row],[ile ton]],J192-statek[[#This Row],[ile ton]]),J192)</f>
         <v>4</v>
       </c>
-      <c r="K193" s="17">
+      <c r="K193" s="14">
         <f>IF(statek[[#This Row],[towar]] = "T4",IF(statek[[#This Row],[Z/W]] = "Z",K192+statek[[#This Row],[ile ton]],K192-statek[[#This Row],[ile ton]]),K192)</f>
         <v>6</v>
       </c>
-      <c r="L193" s="17">
+      <c r="L193" s="14">
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L192+statek[[#This Row],[ile ton]],L192-statek[[#This Row],[ile ton]]),L192)</f>
         <v>20</v>
       </c>
-      <c r="M193" s="18">
+      <c r="M193" s="15">
         <f t="shared" si="4"/>
         <v>43407</v>
       </c>
-      <c r="N193" s="19">
+      <c r="N193" s="14">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N192-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N192+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>550079</v>
       </c>
-      <c r="O193" s="19">
+      <c r="O193" s="14">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>820</v>
       </c>
-      <c r="P193" s="19">
+      <c r="P193" s="14">
         <f>IF(A194&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>550079</v>
       </c>
@@ -19907,19 +19864,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L193+statek[[#This Row],[ile ton]],L193-statek[[#This Row],[ile ton]]),L193)</f>
         <v>20</v>
       </c>
-      <c r="M194" s="12">
-        <f>A195</f>
+      <c r="M194" s="9">
+        <f t="shared" ref="M194:M203" si="6">A195</f>
         <v>43407</v>
       </c>
-      <c r="N194" s="9">
+      <c r="N194">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N193-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N193+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>550207</v>
       </c>
-      <c r="O194" s="9">
+      <c r="O194">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P194" s="9" t="str">
+      <c r="P194" t="str">
         <f>IF(A195&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -19944,7 +19901,7 @@
         <v>37</v>
       </c>
       <c r="G195">
-        <f>IF(A196-A195-1 = -1,0,A196-A195-1)</f>
+        <f t="shared" ref="G195:G203" si="7">IF(A196-A195-1 = -1,0,A196-A195-1)</f>
         <v>20</v>
       </c>
       <c r="H195">
@@ -19967,19 +19924,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L194+statek[[#This Row],[ile ton]],L194-statek[[#This Row],[ile ton]]),L194)</f>
         <v>68</v>
       </c>
-      <c r="M195" s="12">
-        <f>A196</f>
+      <c r="M195" s="9">
+        <f t="shared" si="6"/>
         <v>43428</v>
       </c>
-      <c r="N195" s="9">
+      <c r="N195">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N194-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N194+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>548431</v>
       </c>
-      <c r="O195" s="9">
+      <c r="O195">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1776</v>
       </c>
-      <c r="P195" s="9">
+      <c r="P195">
         <f>IF(A196&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>548431</v>
       </c>
@@ -20004,7 +19961,7 @@
         <v>61</v>
       </c>
       <c r="G196">
-        <f>IF(A197-A196-1 = -1,0,A197-A196-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H196">
@@ -20027,19 +19984,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L195+statek[[#This Row],[ile ton]],L195-statek[[#This Row],[ile ton]]),L195)</f>
         <v>4</v>
       </c>
-      <c r="M196" s="12">
-        <f>A197</f>
+      <c r="M196" s="9">
+        <f t="shared" si="6"/>
         <v>43428</v>
       </c>
-      <c r="N196" s="9">
+      <c r="N196">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N195-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N195+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>552335</v>
       </c>
-      <c r="O196" s="9">
+      <c r="O196">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P196" s="9" t="str">
+      <c r="P196" t="str">
         <f>IF(A197&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -20064,7 +20021,7 @@
         <v>63</v>
       </c>
       <c r="G197">
-        <f>IF(A198-A197-1 = -1,0,A198-A197-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H197">
@@ -20087,19 +20044,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L196+statek[[#This Row],[ile ton]],L196-statek[[#This Row],[ile ton]]),L196)</f>
         <v>4</v>
       </c>
-      <c r="M197" s="12">
-        <f>A198</f>
+      <c r="M197" s="9">
+        <f t="shared" si="6"/>
         <v>43428</v>
       </c>
-      <c r="N197" s="9">
+      <c r="N197">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N196-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N196+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>549626</v>
       </c>
-      <c r="O197" s="9">
+      <c r="O197">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>2709</v>
       </c>
-      <c r="P197" s="9" t="str">
+      <c r="P197" t="str">
         <f>IF(A198&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -20124,7 +20081,7 @@
         <v>24</v>
       </c>
       <c r="G198">
-        <f>IF(A199-A198-1 = -1,0,A199-A198-1)</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="H198">
@@ -20147,19 +20104,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L197+statek[[#This Row],[ile ton]],L197-statek[[#This Row],[ile ton]]),L197)</f>
         <v>4</v>
       </c>
-      <c r="M198" s="12">
-        <f>A199</f>
+      <c r="M198" s="9">
+        <f t="shared" si="6"/>
         <v>43452</v>
       </c>
-      <c r="N198" s="9">
+      <c r="N198">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N197-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N197+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>549050</v>
       </c>
-      <c r="O198" s="9">
+      <c r="O198">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>576</v>
       </c>
-      <c r="P198" s="9">
+      <c r="P198">
         <f>IF(A199&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>549050</v>
       </c>
@@ -20184,7 +20141,7 @@
         <v>62</v>
       </c>
       <c r="G199">
-        <f>IF(A200-A199-1 = -1,0,A200-A199-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H199">
@@ -20207,19 +20164,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L198+statek[[#This Row],[ile ton]],L198-statek[[#This Row],[ile ton]]),L198)</f>
         <v>0</v>
       </c>
-      <c r="M199" s="12">
-        <f>A200</f>
+      <c r="M199" s="9">
+        <f t="shared" si="6"/>
         <v>43452</v>
       </c>
-      <c r="N199" s="9">
+      <c r="N199">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N198-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N198+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>549298</v>
       </c>
-      <c r="O199" s="9">
+      <c r="O199">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>0</v>
       </c>
-      <c r="P199" s="9" t="str">
+      <c r="P199" t="str">
         <f>IF(A200&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -20244,7 +20201,7 @@
         <v>19</v>
       </c>
       <c r="G200">
-        <f>IF(A201-A200-1 = -1,0,A201-A200-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H200">
@@ -20267,19 +20224,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L199+statek[[#This Row],[ile ton]],L199-statek[[#This Row],[ile ton]]),L199)</f>
         <v>0</v>
       </c>
-      <c r="M200" s="12">
-        <f>A201</f>
+      <c r="M200" s="9">
+        <f t="shared" si="6"/>
         <v>43452</v>
       </c>
-      <c r="N200" s="9">
+      <c r="N200">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N199-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N199+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>548633</v>
       </c>
-      <c r="O200" s="9">
+      <c r="O200">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>665</v>
       </c>
-      <c r="P200" s="9" t="str">
+      <c r="P200" t="str">
         <f>IF(A201&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -20304,7 +20261,7 @@
         <v>8</v>
       </c>
       <c r="G201">
-        <f>IF(A202-A201-1 = -1,0,A202-A201-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H201">
@@ -20327,19 +20284,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L200+statek[[#This Row],[ile ton]],L200-statek[[#This Row],[ile ton]]),L200)</f>
         <v>0</v>
       </c>
-      <c r="M201" s="12">
-        <f>A202</f>
+      <c r="M201" s="9">
+        <f t="shared" si="6"/>
         <v>43452</v>
       </c>
-      <c r="N201" s="9">
+      <c r="N201">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N200-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N200+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>548305</v>
       </c>
-      <c r="O201" s="9">
+      <c r="O201">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>328</v>
       </c>
-      <c r="P201" s="9" t="str">
+      <c r="P201" t="str">
         <f>IF(A202&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -20364,7 +20321,7 @@
         <v>61</v>
       </c>
       <c r="G202">
-        <f>IF(A203-A202-1 = -1,0,A203-A202-1)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H202">
@@ -20387,19 +20344,19 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L201+statek[[#This Row],[ile ton]],L201-statek[[#This Row],[ile ton]]),L201)</f>
         <v>0</v>
       </c>
-      <c r="M202" s="12">
-        <f>A203</f>
+      <c r="M202" s="9">
+        <f t="shared" si="6"/>
         <v>43452</v>
       </c>
-      <c r="N202" s="9">
+      <c r="N202">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N201-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N201+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>546902</v>
       </c>
-      <c r="O202" s="9">
+      <c r="O202">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1403</v>
       </c>
-      <c r="P202" s="9" t="str">
+      <c r="P202" t="str">
         <f>IF(A203&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v/>
       </c>
@@ -20424,7 +20381,7 @@
         <v>23</v>
       </c>
       <c r="G203">
-        <f>IF(A204-A203-1 = -1,0,A204-A203-1)</f>
+        <f t="shared" si="7"/>
         <v>-43453</v>
       </c>
       <c r="H203">
@@ -20447,50 +20404,40 @@
         <f>IF(statek[[#This Row],[towar]] = "T5",IF(statek[[#This Row],[Z/W]] = "Z",L202+statek[[#This Row],[ile ton]],L202-statek[[#This Row],[ile ton]]),L202)</f>
         <v>0</v>
       </c>
-      <c r="M203" s="12">
-        <f>A204</f>
-        <v>0</v>
-      </c>
-      <c r="N203" s="9">
+      <c r="M203" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N203">
         <f>IF(statek[[#This Row],[Z/W]]="Z",N202-statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],N202+statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]])</f>
         <v>545844</v>
       </c>
-      <c r="O203" s="9">
+      <c r="O203">
         <f>IF(statek[[#This Row],[Z/W]]="Z",statek[[#This Row],[ile ton]]*statek[[#This Row],[cena za tone w talarach]],0)</f>
         <v>1058</v>
       </c>
-      <c r="P203" s="9">
+      <c r="P203">
         <f>IF(A204&lt;&gt;statek[[#This Row],[data]],statek[[#This Row],[500000]],"")</f>
         <v>545844</v>
       </c>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
-      <c r="B204" s="9"/>
-      <c r="C204" s="9"/>
-      <c r="D204" s="9"/>
-      <c r="G204" s="9"/>
-      <c r="H204" s="9"/>
-      <c r="I204" s="9"/>
-      <c r="J204" s="9"/>
-      <c r="K204" s="9"/>
-      <c r="L204" s="9"/>
-      <c r="N204" s="9"/>
-      <c r="O204" s="9">
+      <c r="O204">
         <f>SUM(O2:O203)</f>
         <v>120873</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="V3">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>552335</formula>
+  <conditionalFormatting sqref="A2:O203">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>$V$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:O203">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>$V$3</formula>
+  <conditionalFormatting sqref="V3">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>552335</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20504,8 +20451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F568A56-1943-4B8D-A2D4-26B5E43A763F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20625,7 +20572,7 @@
       <c r="B14">
         <v>550079</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="16">
         <v>43381</v>
       </c>
     </row>
@@ -20638,7 +20585,7 @@
       <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="17">
         <v>6399</v>
       </c>
     </row>
@@ -20659,8 +20606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4382DC-C6D2-4780-982D-A5A6919C56F2}">
   <dimension ref="A3:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20681,7 +20628,7 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
         <v>1738</v>
       </c>
     </row>
@@ -20689,7 +20636,7 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5">
         <v>1568</v>
       </c>
     </row>
@@ -20697,7 +20644,7 @@
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6">
         <v>1231</v>
       </c>
     </row>
@@ -20705,7 +20652,7 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7">
         <v>1110</v>
       </c>
     </row>
@@ -20713,7 +20660,7 @@
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8">
         <v>896</v>
       </c>
     </row>
@@ -20721,7 +20668,7 @@
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9">
         <v>6543</v>
       </c>
     </row>
